--- a/data_clean/Aker BP 16.12.2020.xlsx
+++ b/data_clean/Aker BP 16.12.2020.xlsx
@@ -1569,7 +1569,7 @@
         <v>1.017768243602684</v>
       </c>
       <c r="K2">
-        <v>47.37051189962259</v>
+        <v>-0.02629488100377415</v>
       </c>
       <c r="L2">
         <v>-0.003261593183359554</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1640,7 +1640,7 @@
         <v>1.017768243602684</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.0293900147257549</v>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1711,7 +1711,7 @@
         <v>1.017768243602684</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.02722897976603552</v>
@@ -1741,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000615858352579</v>
+        <v>0.0006158583525788242</v>
       </c>
       <c r="V4">
-        <v>1.000615858352579</v>
+        <v>0.0006158583525788242</v>
       </c>
       <c r="W4">
-        <v>1.000922934933087</v>
+        <v>0.0009229349330872605</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1782,7 +1782,7 @@
         <v>2.754999999999743</v>
       </c>
       <c r="K5">
-        <v>73.36884154460537</v>
+        <v>0.2336884154460538</v>
       </c>
       <c r="L5">
         <v>0.02090049114436676</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000076934913064</v>
+        <v>7.693491306359768E-05</v>
       </c>
       <c r="V5">
-        <v>1.000076934913064</v>
+        <v>7.693491306359768E-05</v>
       </c>
       <c r="W5">
-        <v>0.9990779160903641</v>
+        <v>-0.0009220839096358846</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1853,7 +1853,7 @@
         <v>4.860263157894329</v>
       </c>
       <c r="K6">
-        <v>82.93591988863324</v>
+        <v>0.3293591988863324</v>
       </c>
       <c r="L6">
         <v>0.02001844653642084</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000415416570505</v>
+        <v>0.000415416570505478</v>
       </c>
       <c r="V6">
-        <v>1.000415416570505</v>
+        <v>0.000415416570505478</v>
       </c>
       <c r="W6">
-        <v>1.001845869866175</v>
+        <v>0.001845869866174521</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1924,7 +1924,7 @@
         <v>8.184362880885704</v>
       </c>
       <c r="K7">
-        <v>89.11192847049654</v>
+        <v>0.3911192847049654</v>
       </c>
       <c r="L7">
         <v>0.02355501200320477</v>
@@ -1954,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.0007382116822</v>
+        <v>0.0007382116821998963</v>
       </c>
       <c r="V7">
-        <v>1.0007382116822</v>
+        <v>0.0007382116821998963</v>
       </c>
       <c r="W7">
-        <v>1.002763703362506</v>
+        <v>0.002763703362505643</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1995,7 +1995,7 @@
         <v>2.976644838008384</v>
       </c>
       <c r="K8">
-        <v>74.85317294513965</v>
+        <v>0.2485317294513965</v>
       </c>
       <c r="L8">
         <v>0.0250609600066509</v>
@@ -2025,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000329315682013</v>
+        <v>0.0003293156820127763</v>
       </c>
       <c r="V8">
-        <v>1.000329315682013</v>
+        <v>0.0003293156820127763</v>
       </c>
       <c r="W8">
-        <v>0.9986219568213138</v>
+        <v>-0.001378043178686172</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2066,7 +2066,7 @@
         <v>3.199908336379945</v>
       </c>
       <c r="K9">
-        <v>76.18995654410075</v>
+        <v>0.2618995654410076</v>
       </c>
       <c r="L9">
         <v>0.02579080503669984</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000304516723729</v>
+        <v>0.0003045167237292201</v>
       </c>
       <c r="V9">
-        <v>1.000304516723729</v>
+        <v>0.0003045167237292201</v>
       </c>
       <c r="W9">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2137,7 +2137,7 @@
         <v>1.876732163035444</v>
       </c>
       <c r="K10">
-        <v>65.23833491176219</v>
+        <v>0.152383349117622</v>
       </c>
       <c r="L10">
         <v>0.02479975876184112</v>
@@ -2167,13 +2167,13 @@
         <v>0.09444444444446276</v>
       </c>
       <c r="U10">
-        <v>1.000083190948825</v>
+        <v>8.319094882480726E-05</v>
       </c>
       <c r="V10">
-        <v>1.000083190948825</v>
+        <v>8.319094882480726E-05</v>
       </c>
       <c r="W10">
-        <v>0.9986206896551724</v>
+        <v>-0.001379310344827633</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2208,7 +2208,7 @@
         <v>1.307583280443182</v>
       </c>
       <c r="K11">
-        <v>56.66461928048181</v>
+        <v>0.06664619280481809</v>
       </c>
       <c r="L11">
         <v>0.02216744851067037</v>
@@ -2238,13 +2238,13 @@
         <v>0.1349999999999909</v>
       </c>
       <c r="U11">
-        <v>0.9999283337599183</v>
+        <v>-7.166624008170253E-05</v>
       </c>
       <c r="V11">
-        <v>0.9999283337599183</v>
+        <v>-7.166624008170253E-05</v>
       </c>
       <c r="W11">
-        <v>0.9986187845303868</v>
+        <v>-0.001381215469613228</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2279,7 +2279,7 @@
         <v>1.41399237080058</v>
       </c>
       <c r="K12">
-        <v>58.57484836754648</v>
+        <v>0.08574848367546484</v>
       </c>
       <c r="L12">
         <v>0.01932636537746388</v>
@@ -2309,13 +2309,13 @@
         <v>0.1511363636363683</v>
       </c>
       <c r="U12">
-        <v>0.9999832456522466</v>
+        <v>-1.675434775338935E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999832456522466</v>
+        <v>-1.675434775338935E-05</v>
       </c>
       <c r="W12">
-        <v>1.000461041954818</v>
+        <v>0.0004610419548178868</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2350,7 +2350,7 @@
         <v>1.862030645989658</v>
       </c>
       <c r="K13">
-        <v>65.05977315787229</v>
+        <v>0.1505977315787228</v>
       </c>
       <c r="L13">
         <v>0.0176263997180089</v>
@@ -2380,13 +2380,13 @@
         <v>0.2083333333333144</v>
       </c>
       <c r="U13">
-        <v>1.000139621903885</v>
+        <v>0.0001396219038845015</v>
       </c>
       <c r="V13">
-        <v>1.000139621903885</v>
+        <v>0.0001396219038845015</v>
       </c>
       <c r="W13">
-        <v>1.00184331797235</v>
+        <v>0.001843317972350267</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2421,7 +2421,7 @@
         <v>1.979935455249934</v>
       </c>
       <c r="K14">
-        <v>66.44222618183763</v>
+        <v>0.1644222618183763</v>
       </c>
       <c r="L14">
         <v>0.016764964534197</v>
@@ -2451,13 +2451,13 @@
         <v>0.2249999999999659</v>
       </c>
       <c r="U14">
-        <v>1.000153562653563</v>
+        <v>0.0001535626535626999</v>
       </c>
       <c r="V14">
-        <v>1.000153562653563</v>
+        <v>0.0001535626535626999</v>
       </c>
       <c r="W14">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2492,7 +2492,7 @@
         <v>1.979935455249934</v>
       </c>
       <c r="K15">
-        <v>66.44222618183763</v>
+        <v>0.1644222618183763</v>
       </c>
       <c r="L15">
         <v>0.01629943247476692</v>
@@ -2522,13 +2522,13 @@
         <v>0.1714285714285779</v>
       </c>
       <c r="U15">
-        <v>1.000131604922024</v>
+        <v>0.0001316049220239091</v>
       </c>
       <c r="V15">
-        <v>1.000131604922024</v>
+        <v>0.0001316049220239091</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2563,7 +2563,7 @@
         <v>2.110577903183757</v>
       </c>
       <c r="K16">
-        <v>67.85163300438563</v>
+        <v>0.1785163300438564</v>
       </c>
       <c r="L16">
         <v>0.01620726549668998</v>
@@ -2593,13 +2593,13 @@
         <v>0.164999999999992</v>
       </c>
       <c r="U16">
-        <v>1.000144746364892</v>
+        <v>0.0001447463648924785</v>
       </c>
       <c r="V16">
-        <v>1.000144746364892</v>
+        <v>0.0001447463648924785</v>
       </c>
       <c r="W16">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2634,7 +2634,7 @@
         <v>2.935688100660574</v>
       </c>
       <c r="K17">
-        <v>74.591482494963</v>
+        <v>0.24591482494963</v>
       </c>
       <c r="L17">
         <v>0.01748566843063087</v>
@@ -2664,13 +2664,13 @@
         <v>0.1875</v>
       </c>
       <c r="U17">
-        <v>1.000299318474857</v>
+        <v>0.000299318474857202</v>
       </c>
       <c r="V17">
-        <v>1.000583287284337</v>
+        <v>0.0005832872843372083</v>
       </c>
       <c r="W17">
-        <v>1.002757352941176</v>
+        <v>0.002757352941176405</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2705,7 +2705,7 @@
         <v>2.564465835417766</v>
       </c>
       <c r="K18">
-        <v>71.94530551917053</v>
+        <v>0.2194530551917053</v>
       </c>
       <c r="L18">
         <v>0.01910851725767292</v>
@@ -2735,13 +2735,13 @@
         <v>0.1875000000000284</v>
       </c>
       <c r="U18">
-        <v>1.000236945969549</v>
+        <v>0.0002369459695490406</v>
       </c>
       <c r="V18">
-        <v>1.000429540085294</v>
+        <v>0.0004295400852944997</v>
       </c>
       <c r="W18">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2776,7 +2776,7 @@
         <v>2.697572713874994</v>
       </c>
       <c r="K19">
-        <v>72.95523097497069</v>
+        <v>0.2295523097497069</v>
       </c>
       <c r="L19">
         <v>0.02090165104947548</v>
@@ -2806,13 +2806,13 @@
         <v>0.2562499999999943</v>
       </c>
       <c r="U19">
-        <v>1.00023613780822</v>
+        <v>0.0002361378082200716</v>
       </c>
       <c r="V19">
-        <v>1.000398687398411</v>
+        <v>0.0003986873984114236</v>
       </c>
       <c r="W19">
-        <v>1.000458505272811</v>
+        <v>0.0004585052728105499</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2847,7 +2847,7 @@
         <v>3.398135232070966</v>
       </c>
       <c r="K20">
-        <v>77.26309112307294</v>
+        <v>0.2726309112307294</v>
       </c>
       <c r="L20">
         <v>0.02351590184284283</v>
@@ -2877,13 +2877,13 @@
         <v>0.3562500000000171</v>
       </c>
       <c r="U20">
-        <v>1.000332319333316</v>
+        <v>0.0003323193333162333</v>
       </c>
       <c r="V20">
-        <v>1.000613120784795</v>
+        <v>0.0006131207847945852</v>
       </c>
       <c r="W20">
-        <v>1.002291475710357</v>
+        <v>0.002291475710357371</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2918,7 +2918,7 @@
         <v>2.624095959168663</v>
       </c>
       <c r="K21">
-        <v>72.4069116473011</v>
+        <v>0.224069116473011</v>
       </c>
       <c r="L21">
         <v>0.02592563686555575</v>
@@ -2948,13 +2948,13 @@
         <v>0.3812499999999943</v>
       </c>
       <c r="U21">
-        <v>1.000252989880405</v>
+        <v>0.0002529898804048969</v>
       </c>
       <c r="V21">
-        <v>1.000428921568628</v>
+        <v>0.000428921568627505</v>
       </c>
       <c r="W21">
-        <v>0.9990855052583448</v>
+        <v>-0.0009144947416551696</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2989,7 +2989,7 @@
         <v>2.863868106643166</v>
       </c>
       <c r="K22">
-        <v>74.11919940329497</v>
+        <v>0.2411919940329497</v>
       </c>
       <c r="L22">
         <v>0.02830530920471271</v>
@@ -3019,13 +3019,13 @@
         <v>0.4312500000000057</v>
       </c>
       <c r="U22">
-        <v>1.000272634403834</v>
+        <v>0.0002726344038339601</v>
       </c>
       <c r="V22">
-        <v>1.000306241195565</v>
+        <v>0.0003062411955654376</v>
       </c>
       <c r="W22">
-        <v>1.00091533180778</v>
+        <v>0.0009153318077803618</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3060,7 +3060,7 @@
         <v>3.11625984082689</v>
       </c>
       <c r="K23">
-        <v>75.70610120183481</v>
+        <v>0.2570610120183481</v>
       </c>
       <c r="L23">
         <v>0.03074628926630997</v>
@@ -3090,13 +3090,13 @@
         <v>0.5312500000000284</v>
       </c>
       <c r="U23">
-        <v>1.00028957644221</v>
+        <v>0.0002895764422099489</v>
       </c>
       <c r="V23">
-        <v>1.000459221160911</v>
+        <v>0.0004592211609111274</v>
       </c>
       <c r="W23">
-        <v>1.000914494741655</v>
+        <v>0.0009144947416552807</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3131,7 +3131,7 @@
         <v>2.228266202351461</v>
       </c>
       <c r="K24">
-        <v>69.02362019366301</v>
+        <v>0.19023620193663</v>
       </c>
       <c r="L24">
         <v>0.03239318543689878</v>
@@ -3161,13 +3161,13 @@
         <v>0.5812500000000398</v>
       </c>
       <c r="U24">
-        <v>1.000204370624766</v>
+        <v>0.0002043706247656374</v>
       </c>
       <c r="V24">
-        <v>1.000336607607332</v>
+        <v>0.0003366076073318958</v>
       </c>
       <c r="W24">
-        <v>0.9986295111923252</v>
+        <v>-0.001370488807674763</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3202,7 +3202,7 @@
         <v>2.328250392107548</v>
       </c>
       <c r="K25">
-        <v>69.95418366444569</v>
+        <v>0.1995418366444569</v>
       </c>
       <c r="L25">
         <v>0.03351290316975086</v>
@@ -3232,13 +3232,13 @@
         <v>0.5687500000000227</v>
       </c>
       <c r="U25">
-        <v>1.000206447831965</v>
+        <v>0.0002064478319645513</v>
       </c>
       <c r="V25">
-        <v>1.000458855919242</v>
+        <v>0.000458855919241552</v>
       </c>
       <c r="W25">
-        <v>1.000457456541628</v>
+        <v>0.0004574565416284315</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3273,7 +3273,7 @@
         <v>2.433496907640301</v>
       </c>
       <c r="K26">
-        <v>70.87517400191112</v>
+        <v>0.2087517400191112</v>
       </c>
       <c r="L26">
         <v>0.03429189513110645</v>
@@ -3303,13 +3303,13 @@
         <v>0.5562500000000057</v>
       </c>
       <c r="U26">
-        <v>1.000208269525268</v>
+        <v>0.00020826952526809</v>
       </c>
       <c r="V26">
-        <v>1.000580950924935</v>
+        <v>0.0005809509249348199</v>
       </c>
       <c r="W26">
-        <v>1.000457247370828</v>
+        <v>0.0004572473708277514</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3344,7 +3344,7 @@
         <v>2.190788624486609</v>
       </c>
       <c r="K27">
-        <v>68.65978547353956</v>
+        <v>0.1865978547353956</v>
       </c>
       <c r="L27">
         <v>0.03451095481318576</v>
@@ -3374,13 +3374,13 @@
         <v>0.5062500000000227</v>
       </c>
       <c r="U27">
-        <v>1.000174542514882</v>
+        <v>0.0001745425148820257</v>
       </c>
       <c r="V27">
-        <v>1.000519496394084</v>
+        <v>0.0005194963940839958</v>
       </c>
       <c r="W27">
-        <v>0.999542961608775</v>
+        <v>-0.0004570383912250175</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3415,7 +3415,7 @@
         <v>2.190788624486609</v>
       </c>
       <c r="K28">
-        <v>68.65978547353954</v>
+        <v>0.1865978547353955</v>
       </c>
       <c r="L28">
         <v>0.03425175188295057</v>
@@ -3445,13 +3445,13 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="U28">
-        <v>1.000161585236212</v>
+        <v>0.000161585236212014</v>
       </c>
       <c r="V28">
-        <v>1.000397055679423</v>
+        <v>0.0003970556794232749</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3486,7 +3486,7 @@
         <v>2.190788624486609</v>
       </c>
       <c r="K29">
-        <v>68.65978547353954</v>
+        <v>0.1865978547353955</v>
       </c>
       <c r="L29">
         <v>0.03359540512976703</v>
@@ -3516,13 +3516,13 @@
         <v>0.34375</v>
       </c>
       <c r="U29">
-        <v>1.000150019192739</v>
+        <v>0.0001500191927388261</v>
       </c>
       <c r="V29">
-        <v>1.000366367466569</v>
+        <v>0.0003663674665690397</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3557,7 +3557,7 @@
         <v>3.005082228622525</v>
       </c>
       <c r="K30">
-        <v>75.03172362221557</v>
+        <v>0.2503172362221556</v>
       </c>
       <c r="L30">
         <v>0.03381737081162893</v>
@@ -3587,13 +3587,13 @@
         <v>0.3125000000000284</v>
       </c>
       <c r="U30">
-        <v>1.000250469134909</v>
+        <v>0.0002504691349090038</v>
       </c>
       <c r="V30">
-        <v>1.000579869376793</v>
+        <v>0.0005798693767928853</v>
       </c>
       <c r="W30">
-        <v>1.003200731595793</v>
+        <v>0.003200731595793371</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3628,7 +3628,7 @@
         <v>3.127532394657991</v>
       </c>
       <c r="K31">
-        <v>75.77244938660596</v>
+        <v>0.2577244938660596</v>
       </c>
       <c r="L31">
         <v>0.03459226524615301</v>
@@ -3658,13 +3658,13 @@
         <v>0.2625000000000171</v>
       </c>
       <c r="U31">
-        <v>1.00024901212879</v>
+        <v>0.0002490121287899161</v>
       </c>
       <c r="V31">
-        <v>1.000579533323166</v>
+        <v>0.0005795333231661814</v>
       </c>
       <c r="W31">
-        <v>1.000455788514129</v>
+        <v>0.0004557885141294182</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3699,7 +3699,7 @@
         <v>3.25642730627427</v>
       </c>
       <c r="K32">
-        <v>76.50611820561507</v>
+        <v>0.2650611820561507</v>
       </c>
       <c r="L32">
         <v>0.0356874306631403</v>
@@ -3729,13 +3729,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U32">
-        <v>1.00050475695188</v>
+        <v>0.0005047569518796813</v>
       </c>
       <c r="V32">
-        <v>1.00042677722229</v>
+        <v>0.0004267772222901201</v>
       </c>
       <c r="W32">
-        <v>1.000455580865604</v>
+        <v>0.0004555808656037108</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3770,7 +3770,7 @@
         <v>2.561377717756181</v>
       </c>
       <c r="K33">
-        <v>71.92097892300954</v>
+        <v>0.2192097892300954</v>
       </c>
       <c r="L33">
         <v>0.03643076506887821</v>
@@ -3800,13 +3800,13 @@
         <v>0.2750000000000057</v>
       </c>
       <c r="U33">
-        <v>1.000412774609775</v>
+        <v>0.0004127746097750684</v>
       </c>
       <c r="V33">
-        <v>1.00039612407825</v>
+        <v>0.0003961240782497377</v>
       </c>
       <c r="W33">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3841,7 +3841,7 @@
         <v>1.915751419061401</v>
       </c>
       <c r="K34">
-        <v>65.70352350812175</v>
+        <v>0.1570352350812175</v>
       </c>
       <c r="L34">
         <v>0.03627180369100245</v>
@@ -3871,13 +3871,13 @@
         <v>0.2499999999999716</v>
       </c>
       <c r="U34">
-        <v>1.000336196094013</v>
+        <v>0.0003361960940126973</v>
       </c>
       <c r="V34">
-        <v>1.000274131156529</v>
+        <v>0.0002741311565288562</v>
       </c>
       <c r="W34">
-        <v>0.9986326344576116</v>
+        <v>-0.001367365542388366</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3912,7 +3912,7 @@
         <v>1.514034771760175</v>
       </c>
       <c r="K35">
-        <v>60.22330274692817</v>
+        <v>0.1022330274692816</v>
       </c>
       <c r="L35">
         <v>0.03494034236656021</v>
@@ -3942,13 +3942,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U35">
-        <v>1.00032080659945</v>
+        <v>0.0003208065994499965</v>
       </c>
       <c r="V35">
-        <v>1.000030450669915</v>
+        <v>3.045066991469447E-05</v>
       </c>
       <c r="W35">
-        <v>0.998630762209037</v>
+        <v>-0.001369237790962985</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3983,7 +3983,7 @@
         <v>1.106847902782547</v>
       </c>
       <c r="K36">
-        <v>52.53572891145657</v>
+        <v>0.0253572891145657</v>
       </c>
       <c r="L36">
         <v>0.03201880270679346</v>
@@ -4013,13 +4013,13 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="U36">
-        <v>1.000183259266047</v>
+        <v>0.0001832592660466759</v>
       </c>
       <c r="V36">
-        <v>0.9999391005146007</v>
+        <v>-6.089948539933498E-05</v>
       </c>
       <c r="W36">
-        <v>0.9977148080438757</v>
+        <v>-0.002285191956124311</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4054,7 +4054,7 @@
         <v>1.047537110849466</v>
       </c>
       <c r="K37">
-        <v>51.16083636769211</v>
+        <v>0.01160836367692109</v>
       </c>
       <c r="L37">
         <v>0.02804228900875599</v>
@@ -4084,13 +4084,13 @@
         <v>0.15625</v>
       </c>
       <c r="U37">
-        <v>1.000076344036767</v>
+        <v>7.634403676726187E-05</v>
       </c>
       <c r="V37">
-        <v>0.9998477420140687</v>
+        <v>-0.0001522579859313256</v>
       </c>
       <c r="W37">
-        <v>0.999541914796152</v>
+        <v>-0.0004580852038480465</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4125,7 +4125,7 @@
         <v>0.9916050403104897</v>
       </c>
       <c r="K38">
-        <v>49.78924135258762</v>
+        <v>-0.00210758647412379</v>
       </c>
       <c r="L38">
         <v>0.02341513068187073</v>
@@ -4155,13 +4155,13 @@
         <v>0.03125</v>
       </c>
       <c r="U38">
-        <v>1.00010687349232</v>
+        <v>0.0001068734923201919</v>
       </c>
       <c r="V38">
-        <v>0.9997563501248705</v>
+        <v>-0.0002436498751294813</v>
       </c>
       <c r="W38">
-        <v>0.9995417048579285</v>
+        <v>-0.0004582951420715187</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4196,7 +4196,7 @@
         <v>1.160217292178588</v>
       </c>
       <c r="K39">
-        <v>53.70836056073342</v>
+        <v>0.03708360560733415</v>
       </c>
       <c r="L39">
         <v>0.01910981341099804</v>
@@ -4226,13 +4226,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U39">
-        <v>1.000137394092054</v>
+        <v>0.000137394092054155</v>
       </c>
       <c r="V39">
-        <v>0.9999390726862853</v>
+        <v>-6.092731371465376E-05</v>
       </c>
       <c r="W39">
-        <v>1.001375515818432</v>
+        <v>0.001375515818431872</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4267,7 +4267,7 @@
         <v>1.160217292178588</v>
       </c>
       <c r="K40">
-        <v>53.70836056073342</v>
+        <v>0.03708360560733415</v>
       </c>
       <c r="L40">
         <v>0.01520491910310269</v>
@@ -4297,13 +4297,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U40">
-        <v>1.000183166956681</v>
+        <v>0.0001831669566811911</v>
       </c>
       <c r="V40">
-        <v>0.9999086034608823</v>
+        <v>-9.139653911771628E-05</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4338,7 +4338,7 @@
         <v>1.031715123886847</v>
       </c>
       <c r="K41">
-        <v>50.78050125024846</v>
+        <v>0.007805012502484554</v>
       </c>
       <c r="L41">
         <v>0.01140181431991341</v>
@@ -4368,13 +4368,13 @@
         <v>-0.3312499999999829</v>
       </c>
       <c r="U41">
-        <v>1.000198394530415</v>
+        <v>0.0001983945304153689</v>
       </c>
       <c r="V41">
-        <v>0.9998171902135828</v>
+        <v>-0.0001828097864171596</v>
       </c>
       <c r="W41">
-        <v>0.999084249084249</v>
+        <v>-0.0009157509157510235</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4409,7 +4409,7 @@
         <v>1.090008273462786</v>
       </c>
       <c r="K42">
-        <v>52.15329945353896</v>
+        <v>0.02153299453538959</v>
       </c>
       <c r="L42">
         <v>0.008029149069676077</v>
@@ -4439,13 +4439,13 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="U42">
-        <v>1.000198355177833</v>
+        <v>0.000198355177833065</v>
       </c>
       <c r="V42">
-        <v>0.9998781045253693</v>
+        <v>-0.0001218954746307066</v>
       </c>
       <c r="W42">
-        <v>1.000458295142072</v>
+        <v>0.0004582951420715187</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4480,7 +4480,7 @@
         <v>1.02699087088428</v>
       </c>
       <c r="K43">
-        <v>50.66578669080303</v>
+        <v>0.006657866908030274</v>
       </c>
       <c r="L43">
         <v>0.004935945283206414</v>
@@ -4510,13 +4510,13 @@
         <v>-0.4437499999999659</v>
       </c>
       <c r="U43">
-        <v>1.000122040517452</v>
+        <v>0.0001220405174517936</v>
       </c>
       <c r="V43">
-        <v>0.9998476120813142</v>
+        <v>-0.0001523879186857702</v>
       </c>
       <c r="W43">
-        <v>0.999541914796152</v>
+        <v>-0.0004580852038480465</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4551,7 +4551,7 @@
         <v>1.087847388758811</v>
       </c>
       <c r="K44">
-        <v>52.10377897426293</v>
+        <v>0.02103778974262926</v>
       </c>
       <c r="L44">
         <v>0.002358380347837662</v>
@@ -4581,13 +4581,13 @@
         <v>-0.4187500000000171</v>
       </c>
       <c r="U44">
-        <v>1.000122025625381</v>
+        <v>0.0001220256253813279</v>
       </c>
       <c r="V44">
-        <v>0.9998780710845577</v>
+        <v>-0.0001219289154422709</v>
       </c>
       <c r="W44">
-        <v>1.000458295142072</v>
+        <v>0.0004582951420715187</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4622,7 +4622,7 @@
         <v>0.8659564626601493</v>
       </c>
       <c r="K45">
-        <v>46.40818154061442</v>
+        <v>-0.03591818459385576</v>
       </c>
       <c r="L45">
         <v>-0.0004190400153696976</v>
@@ -4652,13 +4652,13 @@
         <v>-0.4062499999999716</v>
       </c>
       <c r="U45">
-        <v>1.000061005368472</v>
+        <v>6.100536847242211E-05</v>
       </c>
       <c r="V45">
-        <v>0.9995427108103166</v>
+        <v>-0.000457289189683352</v>
       </c>
       <c r="W45">
-        <v>0.9981676591846083</v>
+        <v>-0.001832340815391742</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4693,7 +4693,7 @@
         <v>0.821842452040168</v>
       </c>
       <c r="K46">
-        <v>45.11051167568512</v>
+        <v>-0.04889488324314883</v>
       </c>
       <c r="L46">
         <v>-0.003305529543749569</v>
@@ -4723,13 +4723,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U46">
-        <v>1.000030500823522</v>
+        <v>3.05008235224058E-05</v>
       </c>
       <c r="V46">
-        <v>0.9994815018147436</v>
+        <v>-0.0005184981852563997</v>
       </c>
       <c r="W46">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4764,7 +4764,7 @@
         <v>0.8218424520401679</v>
       </c>
       <c r="K47">
-        <v>45.11051167568512</v>
+        <v>-0.04889488324314883</v>
       </c>
       <c r="L47">
         <v>-0.00606194056359315</v>
@@ -4794,13 +4794,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U47">
-        <v>0.9999390002134991</v>
+        <v>-6.099978650087046E-05</v>
       </c>
       <c r="V47">
-        <v>0.9994507171193164</v>
+        <v>-0.0005492828806835659</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4835,7 +4835,7 @@
         <v>0.7384745618957648</v>
       </c>
       <c r="K48">
-        <v>42.47830702167283</v>
+        <v>-0.07521692978327166</v>
       </c>
       <c r="L48">
         <v>-0.008875547853289915</v>
@@ -4865,13 +4865,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U48">
-        <v>0.999923745615373</v>
+        <v>-7.625438462699474E-05</v>
       </c>
       <c r="V48">
-        <v>0.9994504152418173</v>
+        <v>-0.0005495847581826752</v>
       </c>
       <c r="W48">
-        <v>0.9990817263544536</v>
+        <v>-0.0009182736455464191</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4906,7 +4906,7 @@
         <v>0.6365233822349948</v>
       </c>
       <c r="K49">
-        <v>38.8948541245831</v>
+        <v>-0.111051458754169</v>
       </c>
       <c r="L49">
         <v>-0.01201277486205267</v>
@@ -4936,13 +4936,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U49">
-        <v>0.9998627316403569</v>
+        <v>-0.0001372683596431168</v>
       </c>
       <c r="V49">
-        <v>0.9994501130323211</v>
+        <v>-0.0005498869676788809</v>
       </c>
       <c r="W49">
-        <v>0.9986213235294118</v>
+        <v>-0.001378676470588203</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4977,7 +4977,7 @@
         <v>0.830286826970524</v>
       </c>
       <c r="K50">
-        <v>45.36375472607254</v>
+        <v>-0.04636245273927464</v>
       </c>
       <c r="L50">
         <v>-0.01443545265070888</v>
@@ -5007,13 +5007,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U50">
-        <v>0.9998474586612971</v>
+        <v>-0.0001525413387029051</v>
       </c>
       <c r="V50">
-        <v>0.9996637730773934</v>
+        <v>-0.0003362269226065973</v>
       </c>
       <c r="W50">
-        <v>1.001840773124712</v>
+        <v>0.001840773124712314</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5048,7 +5048,7 @@
         <v>0.830286826970524</v>
       </c>
       <c r="K51">
-        <v>45.36375472607254</v>
+        <v>-0.04636245273927464</v>
       </c>
       <c r="L51">
         <v>-0.01621867098267961</v>
@@ -5078,13 +5078,13 @@
         <v>-0.2500000000000284</v>
       </c>
       <c r="U51">
-        <v>0.9998779483111098</v>
+        <v>-0.0001220516888902345</v>
       </c>
       <c r="V51">
-        <v>0.9998165418131785</v>
+        <v>-0.0001834581868215279</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5119,7 +5119,7 @@
         <v>0.8302868269705239</v>
       </c>
       <c r="K52">
-        <v>45.36375472607253</v>
+        <v>-0.0463624527392747</v>
       </c>
       <c r="L52">
         <v>-0.01744209463542137</v>
@@ -5149,13 +5149,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U52">
-        <v>0.9998474167658458</v>
+        <v>-0.0001525832341542355</v>
       </c>
       <c r="V52">
-        <v>0.9998470901250803</v>
+        <v>-0.0001529098749196711</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5190,7 +5190,7 @@
         <v>0.8867858631960914</v>
       </c>
       <c r="K53">
-        <v>46.99981489653173</v>
+        <v>-0.03000185103468267</v>
       </c>
       <c r="L53">
         <v>-0.01801829181558584</v>
@@ -5220,13 +5220,13 @@
         <v>-0.2750000000000341</v>
       </c>
       <c r="U53">
-        <v>0.9998321328287144</v>
+        <v>-0.000167867171285585</v>
       </c>
       <c r="V53">
-        <v>0.9999082400440449</v>
+        <v>-9.175995595511743E-05</v>
       </c>
       <c r="W53">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5261,7 +5261,7 @@
         <v>0.6835293013197992</v>
       </c>
       <c r="K54">
-        <v>40.60097444006159</v>
+        <v>-0.09399025559938406</v>
       </c>
       <c r="L54">
         <v>-0.01893441316831922</v>
@@ -5291,13 +5291,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U54">
-        <v>0.9998015782163409</v>
+        <v>-0.0001984217836591418</v>
       </c>
       <c r="V54">
-        <v>0.9996635159524028</v>
+        <v>-0.0003364840475972297</v>
       </c>
       <c r="W54">
-        <v>0.9977043158861341</v>
+        <v>-0.002295684113865937</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5332,7 +5332,7 @@
         <v>0.6520646543095256</v>
       </c>
       <c r="K55">
-        <v>39.46968132321999</v>
+        <v>-0.1053031867678001</v>
       </c>
       <c r="L55">
         <v>-0.02009645531527321</v>
@@ -5362,13 +5362,13 @@
         <v>-0.2875000000000227</v>
       </c>
       <c r="U55">
-        <v>0.9997710063507571</v>
+        <v>-0.0002289936492428923</v>
       </c>
       <c r="V55">
-        <v>0.9996328029375766</v>
+        <v>-0.0003671970624233856</v>
       </c>
       <c r="W55">
-        <v>0.9995398067188218</v>
+        <v>-0.0004601932811781895</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5403,7 +5403,7 @@
         <v>0.7005200475157781</v>
       </c>
       <c r="K56">
-        <v>41.19445980887669</v>
+        <v>-0.08805540191123307</v>
       </c>
       <c r="L56">
         <v>-0.02109387162332794</v>
@@ -5433,13 +5433,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U56">
-        <v>0.9997709539006551</v>
+        <v>-0.0002290460993449317</v>
       </c>
       <c r="V56">
-        <v>0.9997245010407737</v>
+        <v>-0.0002754989592262946</v>
       </c>
       <c r="W56">
-        <v>1.000460405156538</v>
+        <v>0.0004604051565377798</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5474,7 +5474,7 @@
         <v>0.7005200475157781</v>
       </c>
       <c r="K57">
-        <v>41.19445980887669</v>
+        <v>-0.08805540191123307</v>
       </c>
       <c r="L57">
         <v>-0.02185156492885896</v>
@@ -5504,13 +5504,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U57">
-        <v>0.9997861746647525</v>
+        <v>-0.0002138253352474973</v>
       </c>
       <c r="V57">
-        <v>0.9996938056890903</v>
+        <v>-0.0003061943109097243</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5545,7 +5545,7 @@
         <v>0.6648254454411279</v>
       </c>
       <c r="K58">
-        <v>39.93364272883092</v>
+        <v>-0.1006635727116908</v>
       </c>
       <c r="L58">
         <v>-0.02250345429799669</v>
@@ -5575,13 +5575,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U58">
-        <v>0.9997708524289644</v>
+        <v>-0.0002291475710356483</v>
       </c>
       <c r="V58">
-        <v>0.9996937119054182</v>
+        <v>-0.0003062880945817748</v>
       </c>
       <c r="W58">
-        <v>0.9995398067188218</v>
+        <v>-0.0004601932811781895</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5616,7 +5616,7 @@
         <v>0.6004171969241346</v>
       </c>
       <c r="K59">
-        <v>37.51629250660923</v>
+        <v>-0.1248370749339077</v>
       </c>
       <c r="L59">
         <v>-0.02330211549989483</v>
@@ -5646,13 +5646,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U59">
-        <v>0.999740239896096</v>
+        <v>-0.0002597601039040498</v>
       </c>
       <c r="V59">
-        <v>0.9996017034835626</v>
+        <v>-0.000398296516437413</v>
       </c>
       <c r="W59">
-        <v>0.9990791896869246</v>
+        <v>-0.0009208103130754486</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5687,7 +5687,7 @@
         <v>0.6004171969241348</v>
       </c>
       <c r="K60">
-        <v>37.51629250660924</v>
+        <v>-0.1248370749339076</v>
       </c>
       <c r="L60">
         <v>-0.02405451226940132</v>
@@ -5717,13 +5717,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U60">
-        <v>0.9996331845692975</v>
+        <v>-0.000366815430702494</v>
       </c>
       <c r="V60">
-        <v>0.9997241463863177</v>
+        <v>-0.0002758536136823198</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5758,7 +5758,7 @@
         <v>0.6004171969241346</v>
       </c>
       <c r="K61">
-        <v>37.51629250660923</v>
+        <v>-0.1248370749339077</v>
       </c>
       <c r="L61">
         <v>-0.0246438326147324</v>
@@ -5788,13 +5788,13 @@
         <v>-0.2562499999999659</v>
       </c>
       <c r="U61">
-        <v>0.999617760381628</v>
+        <v>-0.0003822396183720267</v>
       </c>
       <c r="V61">
-        <v>0.9997547291289819</v>
+        <v>-0.0002452708710181106</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5829,7 +5829,7 @@
         <v>0.6004171969241346</v>
       </c>
       <c r="K62">
-        <v>37.51629250660923</v>
+        <v>-0.1248370749339077</v>
       </c>
       <c r="L62">
         <v>-0.02500747451099073</v>
@@ -5859,13 +5859,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U62">
-        <v>0.9996023187873783</v>
+        <v>-0.0003976812126217366</v>
       </c>
       <c r="V62">
-        <v>0.9997546689564231</v>
+        <v>-0.0002453310435769351</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5900,7 +5900,7 @@
         <v>0.7193603466853166</v>
       </c>
       <c r="K63">
-        <v>41.83883547577106</v>
+        <v>-0.08161164524228942</v>
       </c>
       <c r="L63">
         <v>-0.02478621836403997</v>
@@ -5930,13 +5930,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U63">
-        <v>0.999663366639634</v>
+        <v>-0.0003366333603660454</v>
       </c>
       <c r="V63">
-        <v>0.9998773043771665</v>
+        <v>-0.000122695622833513</v>
       </c>
       <c r="W63">
-        <v>1.000921658986175</v>
+        <v>0.0009216589861751334</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5971,7 +5971,7 @@
         <v>0.8445636622234205</v>
       </c>
       <c r="K64">
-        <v>45.78663667294579</v>
+        <v>-0.04213363327054209</v>
       </c>
       <c r="L64">
         <v>-0.02380008376209114</v>
@@ -6001,13 +6001,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U64">
-        <v>0.9997397866250326</v>
+        <v>-0.0002602133749673996</v>
       </c>
       <c r="V64">
-        <v>1.000030677669724</v>
+        <v>3.067766972408847E-05</v>
       </c>
       <c r="W64">
-        <v>1.000920810313076</v>
+        <v>0.0009208103130755596</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6042,7 +6042,7 @@
         <v>0.6683864103557464</v>
       </c>
       <c r="K65">
-        <v>40.06184695625925</v>
+        <v>-0.09938153043740755</v>
       </c>
       <c r="L65">
         <v>-0.02299526872470382</v>
@@ -6072,13 +6072,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U65">
-        <v>0.9997244082432557</v>
+        <v>-0.0002755917567442978</v>
       </c>
       <c r="V65">
-        <v>0.9997852628995645</v>
+        <v>-0.0002147371004355136</v>
       </c>
       <c r="W65">
-        <v>0.9981600735970561</v>
+        <v>-0.001839926402943948</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6113,7 +6113,7 @@
         <v>0.5244403077162453</v>
       </c>
       <c r="K66">
-        <v>34.40215435538477</v>
+        <v>-0.1559784564461523</v>
       </c>
       <c r="L66">
         <v>-0.0231043392286592</v>
@@ -6143,13 +6143,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U66">
-        <v>0.999724332271502</v>
+        <v>-0.0002756677284979636</v>
       </c>
       <c r="V66">
-        <v>0.9996318001902363</v>
+        <v>-0.0003681998097636585</v>
       </c>
       <c r="W66">
-        <v>0.9976958525345622</v>
+        <v>-0.002304147465437834</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6184,7 +6184,7 @@
         <v>0.6151197176845493</v>
       </c>
       <c r="K67">
-        <v>38.08508502183297</v>
+        <v>-0.1191491497816702</v>
       </c>
       <c r="L67">
         <v>-0.02334224843233186</v>
@@ -6214,13 +6214,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U67">
-        <v>0.9997702135482093</v>
+        <v>-0.0002297864517907255</v>
       </c>
       <c r="V67">
-        <v>0.9996930538076677</v>
+        <v>-0.0003069461923322914</v>
       </c>
       <c r="W67">
-        <v>1.000923787528868</v>
+        <v>0.0009237875288683473</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6255,7 +6255,7 @@
         <v>0.6628457229310386</v>
       </c>
       <c r="K68">
-        <v>39.86212994929344</v>
+        <v>-0.1013787005070656</v>
       </c>
       <c r="L68">
         <v>-0.02339117789266065</v>
@@ -6285,13 +6285,13 @@
         <v>-0.1562499999999716</v>
       </c>
       <c r="U68">
-        <v>0.9998008059696918</v>
+        <v>-0.000199194030308214</v>
       </c>
       <c r="V68">
-        <v>0.9996929595627743</v>
+        <v>-0.0003070404372257363</v>
       </c>
       <c r="W68">
-        <v>1.000461467466544</v>
+        <v>0.0004614674665437413</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6326,7 +6326,7 @@
         <v>0.7130836231904868</v>
       </c>
       <c r="K69">
-        <v>41.62573347484481</v>
+        <v>-0.08374266525155183</v>
       </c>
       <c r="L69">
         <v>-0.02307019535901864</v>
@@ -6356,13 +6356,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U69">
-        <v>0.9997701149425287</v>
+        <v>-0.0002298850574713462</v>
       </c>
       <c r="V69">
-        <v>0.9998771461039959</v>
+        <v>-0.0001228538960040826</v>
       </c>
       <c r="W69">
-        <v>1.000461254612546</v>
+        <v>0.0004612546125462025</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6397,7 +6397,7 @@
         <v>0.7130836231904868</v>
       </c>
       <c r="K70">
-        <v>41.62573347484481</v>
+        <v>-0.08374266525155183</v>
       </c>
       <c r="L70">
         <v>-0.02246159799144219</v>
@@ -6427,13 +6427,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U70">
-        <v>0.9997700620832377</v>
+        <v>-0.0002299379167622906</v>
       </c>
       <c r="V70">
-        <v>0.9999078482567961</v>
+        <v>-9.215174320387209E-05</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6468,7 +6468,7 @@
         <v>0.6416485518359027</v>
       </c>
       <c r="K71">
-        <v>39.08562226173981</v>
+        <v>-0.1091437773826019</v>
       </c>
       <c r="L71">
         <v>-0.0219706329916959</v>
@@ -6498,13 +6498,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U71">
-        <v>0.9997700091996319</v>
+        <v>-0.0002299908003681184</v>
       </c>
       <c r="V71">
-        <v>0.9998156795281397</v>
+        <v>-0.0001843204718603442</v>
       </c>
       <c r="W71">
-        <v>0.9990779160903641</v>
+        <v>-0.0009220839096358846</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6539,7 +6539,7 @@
         <v>0.7998238545074591</v>
       </c>
       <c r="K72">
-        <v>44.43900732309937</v>
+        <v>-0.05560992676900633</v>
       </c>
       <c r="L72">
         <v>-0.02100004755175029</v>
@@ -6569,13 +6569,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U72">
-        <v>0.9998006287861362</v>
+        <v>-0.0001993712138638193</v>
       </c>
       <c r="V72">
-        <v>0.99990782277392</v>
+        <v>-9.217722608001466E-05</v>
       </c>
       <c r="W72">
-        <v>1.001384402399631</v>
+        <v>0.00138440239963078</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6610,7 +6610,7 @@
         <v>1.021824279309638</v>
       </c>
       <c r="K73">
-        <v>50.53971750989879</v>
+        <v>0.00539717509898785</v>
       </c>
       <c r="L73">
         <v>-0.0190540709867848</v>
@@ -6640,13 +6640,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U73">
-        <v>0.9998772855565099</v>
+        <v>-0.0001227144434901017</v>
       </c>
       <c r="V73">
-        <v>1.000061457149003</v>
+        <v>6.145714900296362E-05</v>
       </c>
       <c r="W73">
-        <v>1.00184331797235</v>
+        <v>0.001843317972350267</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6681,7 +6681,7 @@
         <v>0.8694427123495597</v>
       </c>
       <c r="K74">
-        <v>46.50812280076898</v>
+        <v>-0.03491877199231019</v>
       </c>
       <c r="L74">
         <v>-0.01707382567799288</v>
@@ -6711,13 +6711,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U74">
-        <v>0.999815905743741</v>
+        <v>-0.000184094256258982</v>
       </c>
       <c r="V74">
-        <v>1.000030726686127</v>
+        <v>3.072668612680296E-05</v>
       </c>
       <c r="W74">
-        <v>0.9986200551977921</v>
+        <v>-0.001379944802207933</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6752,7 +6752,7 @@
         <v>0.8262110101572959</v>
       </c>
       <c r="K75">
-        <v>45.24181518794656</v>
+        <v>-0.04758184812053434</v>
       </c>
       <c r="L75">
         <v>-0.01530428564315593</v>
@@ -6782,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0.9998619038851039</v>
+        <v>-0.0001380961148961246</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6823,7 +6823,7 @@
         <v>0.8785514971069742</v>
       </c>
       <c r="K76">
-        <v>46.76749604469028</v>
+        <v>-0.03232503955309723</v>
       </c>
       <c r="L76">
         <v>-0.0135518456309448</v>
@@ -6853,13 +6853,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U76">
-        <v>0.9998925770759478</v>
+        <v>-0.0001074229240521918</v>
       </c>
       <c r="V76">
-        <v>1.000030725742027</v>
+        <v>3.072574202667155E-05</v>
       </c>
       <c r="W76">
-        <v>1.000460829493087</v>
+        <v>0.0004608294930874557</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6894,7 +6894,7 @@
         <v>0.9336467465276884</v>
       </c>
       <c r="K77">
-        <v>48.28424572400662</v>
+        <v>-0.01715754275993381</v>
       </c>
       <c r="L77">
         <v>-0.01170440299871242</v>
@@ -6924,13 +6924,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U77">
-        <v>0.9999079133157346</v>
+        <v>-9.208668426541333E-05</v>
       </c>
       <c r="V77">
-        <v>1.000061449595969</v>
+        <v>6.144959596876554E-05</v>
       </c>
       <c r="W77">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6965,7 +6965,7 @@
         <v>0.9916417459179302</v>
       </c>
       <c r="K78">
-        <v>49.79016672804732</v>
+        <v>-0.002098332719526752</v>
       </c>
       <c r="L78">
         <v>-0.009706764455741828</v>
@@ -6995,13 +6995,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U78">
-        <v>0.9999539524174981</v>
+        <v>-4.604758250192909E-05</v>
       </c>
       <c r="V78">
-        <v>1.000030722910074</v>
+        <v>3.072291007399919E-05</v>
       </c>
       <c r="W78">
-        <v>1.000460405156538</v>
+        <v>0.0004604051565377798</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7036,7 +7036,7 @@
         <v>1.235831217034668</v>
       </c>
       <c r="K79">
-        <v>55.27390473927289</v>
+        <v>0.05273904739272883</v>
       </c>
       <c r="L79">
         <v>-0.007039364765953238</v>
@@ -7066,13 +7066,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U79">
-        <v>1.000061399603973</v>
+        <v>6.139960397266719E-05</v>
       </c>
       <c r="V79">
-        <v>1.000092165898617</v>
+        <v>9.216589861749114E-05</v>
       </c>
       <c r="W79">
-        <v>1.001840773124712</v>
+        <v>0.001840773124712314</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7107,7 +7107,7 @@
         <v>1.30009160417067</v>
       </c>
       <c r="K80">
-        <v>56.52347070930838</v>
+        <v>0.06523470709308388</v>
       </c>
       <c r="L80">
         <v>-0.003942673802624502</v>
@@ -7137,13 +7137,13 @@
         <v>0.2562499999999659</v>
       </c>
       <c r="U80">
-        <v>1.000015348958573</v>
+        <v>1.534895857302487E-05</v>
       </c>
       <c r="V80">
-        <v>1.000245753079593</v>
+        <v>0.0002457530795934026</v>
       </c>
       <c r="W80">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7178,7 +7178,7 @@
         <v>1.36773411694539</v>
       </c>
       <c r="K81">
-        <v>57.76552811216411</v>
+        <v>0.07765528112164111</v>
       </c>
       <c r="L81">
         <v>-0.0006011663031075654</v>
@@ -7208,13 +7208,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U81">
-        <v>1.000030697445973</v>
+        <v>3.069744597250512E-05</v>
       </c>
       <c r="V81">
-        <v>1.000429962224747</v>
+        <v>0.0004299622247472268</v>
       </c>
       <c r="W81">
-        <v>1.000459136822773</v>
+        <v>0.0004591368227730985</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7249,7 +7249,7 @@
         <v>1.27682107890255</v>
       </c>
       <c r="K82">
-        <v>56.07911358225787</v>
+        <v>0.06079113582257867</v>
       </c>
       <c r="L82">
         <v>0.002510126001288169</v>
@@ -7279,13 +7279,13 @@
         <v>0.2687499999999829</v>
       </c>
       <c r="U82">
-        <v>1.000015348251834</v>
+        <v>1.534825183413524E-05</v>
       </c>
       <c r="V82">
-        <v>1.000337682271681</v>
+        <v>0.0003376822716807393</v>
       </c>
       <c r="W82">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7320,7 +7320,7 @@
         <v>0.857054819784639</v>
       </c>
       <c r="K83">
-        <v>46.15129347037967</v>
+        <v>-0.03848706529620327</v>
       </c>
       <c r="L83">
         <v>0.004100660156500634</v>
@@ -7350,13 +7350,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U83">
-        <v>0.9998925638861176</v>
+        <v>-0.0001074361138824198</v>
       </c>
       <c r="V83">
-        <v>1.000092064076598</v>
+        <v>9.206407659756444E-05</v>
       </c>
       <c r="W83">
-        <v>0.9967860422405876</v>
+        <v>-0.003213957759412356</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7391,7 +7391,7 @@
         <v>0.9064922443189104</v>
       </c>
       <c r="K84">
-        <v>47.54764919816144</v>
+        <v>-0.02452350801838565</v>
       </c>
       <c r="L84">
         <v>0.004821203831870318</v>
@@ -7421,13 +7421,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U84">
-        <v>0.9999846503346227</v>
+        <v>-1.534966537730664E-05</v>
       </c>
       <c r="V84">
-        <v>1.000092055601583</v>
+        <v>9.205560158331849E-05</v>
       </c>
       <c r="W84">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7462,7 +7462,7 @@
         <v>0.8616523765900213</v>
       </c>
       <c r="K85">
-        <v>46.28427881731096</v>
+        <v>-0.03715721182689036</v>
       </c>
       <c r="L85">
         <v>0.004783586671741731</v>
@@ -7492,13 +7492,13 @@
         <v>0.21875</v>
       </c>
       <c r="U85">
-        <v>0.9999846500990068</v>
+        <v>-1.53499009931668E-05</v>
       </c>
       <c r="V85">
-        <v>1.000061364752086</v>
+        <v>6.136475208640135E-05</v>
       </c>
       <c r="W85">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7533,7 +7533,7 @@
         <v>0.7452411867347831</v>
       </c>
       <c r="K86">
-        <v>42.70132932910403</v>
+        <v>-0.07298670670895974</v>
       </c>
       <c r="L86">
         <v>0.003768784019542376</v>
@@ -7563,13 +7563,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U86">
-        <v>0.999923249316919</v>
+        <v>-7.675068308099497E-05</v>
       </c>
       <c r="V86">
-        <v>1.000030680493342</v>
+        <v>3.068049334231659E-05</v>
       </c>
       <c r="W86">
-        <v>0.9986181483187472</v>
+        <v>-0.001381851681252821</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7604,7 +7604,7 @@
         <v>0.934858404247959</v>
       </c>
       <c r="K87">
-        <v>48.31663144938607</v>
+        <v>-0.01683368550613928</v>
       </c>
       <c r="L87">
         <v>0.002883588449881519</v>
@@ -7634,13 +7634,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U87">
-        <v>0.9999846486851598</v>
+        <v>-1.535131484020624E-05</v>
       </c>
       <c r="V87">
-        <v>1.000061359104157</v>
+        <v>6.135910415716594E-05</v>
       </c>
       <c r="W87">
-        <v>1.001845018450184</v>
+        <v>0.001845018450184366</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7675,7 +7675,7 @@
         <v>1.034656939781224</v>
       </c>
       <c r="K88">
-        <v>50.85166543567168</v>
+        <v>0.00851665435671678</v>
       </c>
       <c r="L88">
         <v>0.002458076010116941</v>
@@ -7705,13 +7705,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U88">
-        <v>1.000030703101013</v>
+        <v>3.070310101316309E-05</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>1.000920810313076</v>
+        <v>0.0009208103130755596</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7746,7 +7746,7 @@
         <v>1.034656939781224</v>
       </c>
       <c r="K89">
-        <v>50.85166543567168</v>
+        <v>0.00851665435671678</v>
       </c>
       <c r="L89">
         <v>0.002329185256328009</v>
@@ -7776,13 +7776,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U89">
-        <v>1.000061404316724</v>
+        <v>6.140431672352342E-05</v>
       </c>
       <c r="V89">
-        <v>1.000092033009172</v>
+        <v>9.203300917248747E-05</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7817,7 +7817,7 @@
         <v>0.8874547021710665</v>
       </c>
       <c r="K90">
-        <v>47.01859605691525</v>
+        <v>-0.02981403943084748</v>
       </c>
       <c r="L90">
         <v>0.001876842442029304</v>
@@ -7847,13 +7847,13 @@
         <v>-0.1562500000000284</v>
       </c>
       <c r="U90">
-        <v>1.000015350136616</v>
+        <v>1.53501366162434E-05</v>
       </c>
       <c r="V90">
-        <v>1.000030674846626</v>
+        <v>3.067484662588882E-05</v>
       </c>
       <c r="W90">
-        <v>0.9986200551977921</v>
+        <v>-0.001379944802207933</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7888,7 +7888,7 @@
         <v>1.087134058477548</v>
       </c>
       <c r="K91">
-        <v>52.08740924244002</v>
+        <v>0.02087409242440019</v>
       </c>
       <c r="L91">
         <v>0.001921031885656981</v>
@@ -7918,13 +7918,13 @@
         <v>-0.1375000000000455</v>
       </c>
       <c r="U91">
-        <v>1.000076749504966</v>
+        <v>7.674950496561195E-05</v>
       </c>
       <c r="V91">
-        <v>1.000122695622834</v>
+        <v>0.000122695622833513</v>
       </c>
       <c r="W91">
-        <v>1.001842468908337</v>
+        <v>0.001842468908337169</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7959,7 +7959,7 @@
         <v>1.087134058477548</v>
       </c>
       <c r="K92">
-        <v>52.08740924244002</v>
+        <v>0.02087409242440019</v>
       </c>
       <c r="L92">
         <v>0.002256195348291858</v>
@@ -7989,13 +7989,13 @@
         <v>-0.125</v>
       </c>
       <c r="U92">
-        <v>1.000076743614931</v>
+        <v>7.674361493137383E-05</v>
       </c>
       <c r="V92">
-        <v>1.000092010427849</v>
+        <v>9.201042784856561E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8030,7 +8030,7 @@
         <v>1.197759740641796</v>
       </c>
       <c r="K93">
-        <v>54.49912101365651</v>
+        <v>0.04499121013656504</v>
       </c>
       <c r="L93">
         <v>0.003073263088547765</v>
@@ -8060,13 +8060,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U93">
-        <v>1.000076737725801</v>
+        <v>7.673772580085725E-05</v>
       </c>
       <c r="V93">
-        <v>1.000122669283611</v>
+        <v>0.0001226692836113763</v>
       </c>
       <c r="W93">
-        <v>1.000919540229885</v>
+        <v>0.0009195402298849409</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8101,7 +8101,7 @@
         <v>1.197759740641796</v>
       </c>
       <c r="K94">
-        <v>54.49912101365651</v>
+        <v>0.04499121013656504</v>
       </c>
       <c r="L94">
         <v>0.004118958036996044</v>
@@ -8131,13 +8131,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U94">
-        <v>1.000046039102544</v>
+        <v>4.60391025443041E-05</v>
       </c>
       <c r="V94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8172,7 +8172,7 @@
         <v>1.197759740641796</v>
       </c>
       <c r="K95">
-        <v>54.49912101365651</v>
+        <v>0.04499121013656504</v>
       </c>
       <c r="L95">
         <v>0.005221442611900549</v>
@@ -8202,13 +8202,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U95">
-        <v>1.0001074196271</v>
+        <v>0.0001074196271002581</v>
       </c>
       <c r="V95">
-        <v>0.9999693364405741</v>
+        <v>-3.066355942593635E-05</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8243,7 +8243,7 @@
         <v>1.003533359331476</v>
       </c>
       <c r="K96">
-        <v>50.08817820065284</v>
+        <v>0.0008817820065284421</v>
       </c>
       <c r="L96">
         <v>0.005766195082241074</v>
@@ -8273,13 +8273,13 @@
         <v>0.09375</v>
       </c>
       <c r="U96">
-        <v>1.000138096114896</v>
+        <v>0.0001380961148960136</v>
       </c>
       <c r="V96">
-        <v>0.9998466775014567</v>
+        <v>-0.0001533224985432735</v>
       </c>
       <c r="W96">
-        <v>0.9986219568213138</v>
+        <v>-0.001378043178686172</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8314,7 +8314,7 @@
         <v>0.9495086342352935</v>
       </c>
       <c r="K97">
-        <v>48.70502328437976</v>
+        <v>-0.01294976715620244</v>
       </c>
       <c r="L97">
         <v>0.00574977889387333</v>
@@ -8344,13 +8344,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U97">
-        <v>1.000092051364662</v>
+        <v>9.205136466161612E-05</v>
       </c>
       <c r="V97">
-        <v>0.999846653990063</v>
+        <v>-0.0001533460099369943</v>
       </c>
       <c r="W97">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8385,7 +8385,7 @@
         <v>0.9495086342352935</v>
       </c>
       <c r="K98">
-        <v>48.70502328437976</v>
+        <v>-0.01294976715620244</v>
       </c>
       <c r="L98">
         <v>0.00537355899548963</v>
@@ -8415,13 +8415,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U98">
-        <v>1.00007670240999</v>
+        <v>7.670240998969291E-05</v>
       </c>
       <c r="V98">
-        <v>1.000061347811417</v>
+        <v>6.134781141686751E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8456,7 +8456,7 @@
         <v>1.009159059092306</v>
       </c>
       <c r="K99">
-        <v>50.22793265298875</v>
+        <v>0.002279326529887493</v>
       </c>
       <c r="L99">
         <v>0.004951381110907649</v>
@@ -8486,13 +8486,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U99">
-        <v>1.000076696527181</v>
+        <v>7.669652718123032E-05</v>
       </c>
       <c r="V99">
-        <v>1.000061344048094</v>
+        <v>6.13440480936589E-05</v>
       </c>
       <c r="W99">
-        <v>1.000460193281178</v>
+        <v>0.0004601932811780785</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8527,7 +8527,7 @@
         <v>0.9495376642598479</v>
       </c>
       <c r="K100">
-        <v>48.70578710364874</v>
+        <v>-0.0129421289635126</v>
       </c>
       <c r="L100">
         <v>0.004342688700712393</v>
@@ -8557,13 +8557,13 @@
         <v>0.1125000000000398</v>
       </c>
       <c r="U100">
-        <v>1.00006135251622</v>
+        <v>6.13525162200812E-05</v>
       </c>
       <c r="V100">
-        <v>1.000061340285232</v>
+        <v>6.134028523230306E-05</v>
       </c>
       <c r="W100">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8598,7 +8598,7 @@
         <v>1.073917190789558</v>
       </c>
       <c r="K101">
-        <v>51.78206707379231</v>
+        <v>0.01782067073792304</v>
       </c>
       <c r="L101">
         <v>0.003979102008653855</v>
@@ -8628,13 +8628,13 @@
         <v>0.0625</v>
       </c>
       <c r="U101">
-        <v>1.00012269750464</v>
+        <v>0.0001226975046395573</v>
       </c>
       <c r="V101">
-        <v>1.000214677829914</v>
+        <v>0.0002146778299139118</v>
       </c>
       <c r="W101">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8669,7 +8669,7 @@
         <v>1.073917190789558</v>
       </c>
       <c r="K102">
-        <v>51.78206707379231</v>
+        <v>0.01782067073792304</v>
       </c>
       <c r="L102">
         <v>0.003772662629372272</v>
@@ -8699,13 +8699,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U102">
-        <v>1.000076676532381</v>
+        <v>7.66765323805263E-05</v>
       </c>
       <c r="V102">
-        <v>1.000091985037101</v>
+        <v>9.198503710061701E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8740,7 +8740,7 @@
         <v>1.142825515736767</v>
       </c>
       <c r="K103">
-        <v>53.33264455476812</v>
+        <v>0.03332644554768116</v>
       </c>
       <c r="L103">
         <v>0.003828361790464845</v>
@@ -8770,13 +8770,13 @@
         <v>-0.04374999999996021</v>
       </c>
       <c r="U103">
-        <v>1.000030668261416</v>
+        <v>3.06682614164E-05</v>
       </c>
       <c r="V103">
-        <v>1.000061317717754</v>
+        <v>6.131771775441663E-05</v>
       </c>
       <c r="W103">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8811,7 +8811,7 @@
         <v>1.142825515736767</v>
       </c>
       <c r="K104">
-        <v>53.33264455476812</v>
+        <v>0.03332644554768116</v>
       </c>
       <c r="L104">
         <v>0.004025346399257304</v>
@@ -8841,13 +8841,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U104">
-        <v>1.000076668302257</v>
+        <v>7.666830225683263E-05</v>
       </c>
       <c r="V104">
-        <v>1.000061313958123</v>
+        <v>6.131395812269957E-05</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8882,7 +8882,7 @@
         <v>1.142825515736767</v>
       </c>
       <c r="K105">
-        <v>53.33264455476812</v>
+        <v>0.03332644554768116</v>
       </c>
       <c r="L105">
         <v>0.00428068406965735</v>
@@ -8912,13 +8912,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U105">
-        <v>1.000091994909615</v>
+        <v>9.199490961497858E-05</v>
       </c>
       <c r="V105">
-        <v>1.000153275497379</v>
+        <v>0.0001532754973787576</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8953,7 +8953,7 @@
         <v>1.05780812432379</v>
       </c>
       <c r="K106">
-        <v>51.40460433702454</v>
+        <v>0.0140460433702454</v>
       </c>
       <c r="L106">
         <v>0.004371973033549138</v>
@@ -8983,13 +8983,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U106">
-        <v>1.00006132429822</v>
+        <v>6.132429822014451E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>0.9995404411764706</v>
+        <v>-0.0004595588235294379</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9024,7 +9024,7 @@
         <v>1.05780812432379</v>
       </c>
       <c r="K107">
-        <v>51.40460433702454</v>
+        <v>0.0140460433702454</v>
       </c>
       <c r="L107">
         <v>0.004342141179143458</v>
@@ -9054,13 +9054,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U107">
-        <v>1.000045990403336</v>
+        <v>4.599040333586046E-05</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9095,7 +9095,7 @@
         <v>0.977253946481796</v>
       </c>
       <c r="K108">
-        <v>49.4248069763958</v>
+        <v>-0.00575193023604198</v>
       </c>
       <c r="L108">
         <v>0.004057524548794037</v>
@@ -9125,13 +9125,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U108">
-        <v>1.000015329429439</v>
+        <v>1.532942943871518E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999080487954393</v>
+        <v>-9.195120456073624E-05</v>
       </c>
       <c r="W108">
-        <v>0.9995402298850575</v>
+        <v>-0.0004597701149424704</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9166,7 +9166,7 @@
         <v>0.8422279981413548</v>
       </c>
       <c r="K109">
-        <v>45.71790239813358</v>
+        <v>-0.04282097601866419</v>
       </c>
       <c r="L109">
         <v>0.003286957077152859</v>
@@ -9196,13 +9196,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U109">
-        <v>0.9999233540277459</v>
+        <v>-7.664597225409686E-05</v>
       </c>
       <c r="V109">
-        <v>0.9998467338993962</v>
+        <v>-0.0001532661006038438</v>
       </c>
       <c r="W109">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9237,7 +9237,7 @@
         <v>0.8422279981413548</v>
       </c>
       <c r="K110">
-        <v>45.71790239813358</v>
+        <v>-0.04282097601866419</v>
       </c>
       <c r="L110">
         <v>0.002259180482300223</v>
@@ -9267,13 +9267,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U110">
-        <v>0.9999080177832287</v>
+        <v>-9.198221677131357E-05</v>
       </c>
       <c r="V110">
-        <v>0.9998467104052976</v>
+        <v>-0.0001532895947023993</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9308,7 +9308,7 @@
         <v>0.7823414939909427</v>
       </c>
       <c r="K111">
-        <v>43.89402909759774</v>
+        <v>-0.06105970902402263</v>
       </c>
       <c r="L111">
         <v>0.000965389619260876</v>
@@ -9338,13 +9338,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U111">
-        <v>0.9998773457622959</v>
+        <v>-0.0001226542377040785</v>
       </c>
       <c r="V111">
-        <v>0.9999080121423973</v>
+        <v>-9.198785760267114E-05</v>
       </c>
       <c r="W111">
-        <v>0.9995395948434622</v>
+        <v>-0.0004604051565377798</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9379,7 +9379,7 @@
         <v>0.8571887153616413</v>
       </c>
       <c r="K112">
-        <v>46.15517573800922</v>
+        <v>-0.03844824261990781</v>
       </c>
       <c r="L112">
         <v>-0.0002431457723651618</v>
@@ -9409,13 +9409,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U112">
-        <v>0.9999079980372915</v>
+        <v>-9.200196270853223E-05</v>
       </c>
       <c r="V112">
-        <v>0.999969334559951</v>
+        <v>-3.066544004903804E-05</v>
       </c>
       <c r="W112">
-        <v>1.000460617227084</v>
+        <v>0.0004606172270842368</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9450,7 +9450,7 @@
         <v>0.7405050420765432</v>
       </c>
       <c r="K113">
-        <v>42.54541206000009</v>
+        <v>-0.07454587939999913</v>
       </c>
       <c r="L113">
         <v>-0.001657125001210066</v>
@@ -9480,13 +9480,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U113">
-        <v>0.999984664928692</v>
+        <v>-1.533507130802025E-05</v>
       </c>
       <c r="V113">
-        <v>0.9999080008586586</v>
+        <v>-9.199914134139231E-05</v>
       </c>
       <c r="W113">
-        <v>0.9990791896869246</v>
+        <v>-0.0009208103130754486</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9521,7 +9521,7 @@
         <v>0.8121490785916837</v>
       </c>
       <c r="K114">
-        <v>44.81690210735021</v>
+        <v>-0.05183097892649791</v>
       </c>
       <c r="L114">
         <v>-0.002931999665469591</v>
@@ -9551,13 +9551,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U114">
-        <v>0.9999846646935241</v>
+        <v>-1.533530647590542E-05</v>
       </c>
       <c r="V114">
-        <v>0.9999079923940378</v>
+        <v>-9.200760596217439E-05</v>
       </c>
       <c r="W114">
-        <v>1.000460829493087</v>
+        <v>0.0004608294930874557</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9592,7 +9592,7 @@
         <v>0.8121490785916838</v>
       </c>
       <c r="K115">
-        <v>44.81690210735022</v>
+        <v>-0.05183097892649785</v>
       </c>
       <c r="L115">
         <v>-0.004030747601340329</v>
@@ -9622,13 +9622,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115">
-        <v>0.9999386559519063</v>
+        <v>-6.13440480936589E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9663,7 +9663,7 @@
         <v>0.8121490785916837</v>
       </c>
       <c r="K116">
-        <v>44.81690210735021</v>
+        <v>-0.05183097892649791</v>
       </c>
       <c r="L116">
         <v>-0.004938160748607398</v>
@@ -9693,13 +9693,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U116">
-        <v>1.000046006624954</v>
+        <v>4.600662495390928E-05</v>
       </c>
       <c r="V116">
-        <v>0.9998773043771664</v>
+        <v>-0.000122695622833624</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9734,7 +9734,7 @@
         <v>0.8121490785916837</v>
       </c>
       <c r="K117">
-        <v>44.81690210735021</v>
+        <v>-0.05183097892649791</v>
       </c>
       <c r="L117">
         <v>-0.005653907387433077</v>
@@ -9764,13 +9764,13 @@
         <v>-0.1875000000000284</v>
       </c>
       <c r="U117">
-        <v>0.9999846651638529</v>
+        <v>-1.533483614712949E-05</v>
       </c>
       <c r="V117">
-        <v>0.9998772893211033</v>
+        <v>-0.000122710678896687</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9805,7 +9805,7 @@
         <v>0.9880692425318641</v>
       </c>
       <c r="K118">
-        <v>49.69994109830547</v>
+        <v>-0.003000589016945276</v>
       </c>
       <c r="L118">
         <v>-0.005852357007621771</v>
@@ -9835,13 +9835,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U118">
-        <v>0.999984664928692</v>
+        <v>-1.533507130802025E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999079556960083</v>
+        <v>-9.204430399167851E-05</v>
       </c>
       <c r="W118">
-        <v>1.000921234454169</v>
+        <v>0.0009212344541686956</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9876,7 +9876,7 @@
         <v>1.17324836246887</v>
       </c>
       <c r="K119">
-        <v>53.98593104821335</v>
+        <v>0.03985931048213343</v>
       </c>
       <c r="L119">
         <v>-0.005368374741865417</v>
@@ -9906,13 +9906,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U119">
-        <v>1.000015335306476</v>
+        <v>1.533530647601644E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999693157410247</v>
+        <v>-3.068425897534421E-05</v>
       </c>
       <c r="W119">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9947,7 +9947,7 @@
         <v>0.9818590958643406</v>
       </c>
       <c r="K120">
-        <v>49.54232608732086</v>
+        <v>-0.004576739126791407</v>
       </c>
       <c r="L120">
         <v>-0.004817215024675216</v>
@@ -9977,13 +9977,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U120">
-        <v>1.000030670142616</v>
+        <v>3.067014261604051E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999079443984167</v>
+        <v>-9.205560158331849E-05</v>
       </c>
       <c r="W120">
-        <v>0.9990804597701149</v>
+        <v>-0.0009195402298850519</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10018,7 +10018,7 @@
         <v>1.153572428134046</v>
       </c>
       <c r="K121">
-        <v>53.5655273564936</v>
+        <v>0.03565527356493603</v>
       </c>
       <c r="L121">
         <v>-0.003907839501410317</v>
@@ -10048,13 +10048,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10089,7 +10089,7 @@
         <v>1.057958926707988</v>
       </c>
       <c r="K122">
-        <v>51.40816529318935</v>
+        <v>0.01408165293189345</v>
       </c>
       <c r="L122">
         <v>-0.00299265679440367</v>
@@ -10119,13 +10119,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U122">
-        <v>0.9999846653990063</v>
+        <v>-1.533460099367723E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999693119744676</v>
+        <v>-3.068802553241046E-05</v>
       </c>
       <c r="W122">
-        <v>0.9995402298850575</v>
+        <v>-0.0004597701149424704</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10160,7 +10160,7 @@
         <v>1.057958926707988</v>
       </c>
       <c r="K123">
-        <v>51.40816529318935</v>
+        <v>0.01408165293189345</v>
       </c>
       <c r="L123">
         <v>-0.002121367226413466</v>
@@ -10190,13 +10190,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U123">
-        <v>0.9999539954915581</v>
+        <v>-4.600450844194359E-05</v>
       </c>
       <c r="V123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10231,7 +10231,7 @@
         <v>1.149797926396612</v>
       </c>
       <c r="K124">
-        <v>53.48400016013822</v>
+        <v>0.03484000160138223</v>
       </c>
       <c r="L124">
         <v>-0.001156909175443762</v>
@@ -10261,13 +10261,13 @@
         <v>0.125</v>
       </c>
       <c r="U124">
-        <v>0.9999693289166973</v>
+        <v>-3.06710833026802E-05</v>
       </c>
       <c r="V124">
-        <v>1.000092066901949</v>
+        <v>9.20669019488507E-05</v>
       </c>
       <c r="W124">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10302,7 +10302,7 @@
         <v>1.343143188898978</v>
       </c>
       <c r="K125">
-        <v>57.32228381356877</v>
+        <v>0.07322283813568775</v>
       </c>
       <c r="L125">
         <v>0.0001418646480337135</v>
@@ -10332,13 +10332,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>1.000153430710691</v>
+        <v>0.0001534307106909605</v>
       </c>
       <c r="W125">
-        <v>1.000919540229885</v>
+        <v>0.0009195402298849409</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10373,7 +10373,7 @@
         <v>1.546664517848866</v>
       </c>
       <c r="K126">
-        <v>60.73295116057584</v>
+        <v>0.1073295116057584</v>
       </c>
       <c r="L126">
         <v>0.001894996841308546</v>
@@ -10403,13 +10403,13 @@
         <v>0.1999999999999602</v>
       </c>
       <c r="U126">
-        <v>1.000076680060117</v>
+        <v>7.668006011729567E-05</v>
       </c>
       <c r="V126">
-        <v>1.000245451477311</v>
+        <v>0.0002454514773109207</v>
       </c>
       <c r="W126">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10444,7 +10444,7 @@
         <v>1.653781006769845</v>
       </c>
       <c r="K127">
-        <v>62.31791555335646</v>
+        <v>0.1231791555335646</v>
       </c>
       <c r="L127">
         <v>0.003972251352137185</v>
@@ -10474,13 +10474,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U127">
-        <v>1.000107343853031</v>
+        <v>0.0001073438530310167</v>
       </c>
       <c r="V127">
-        <v>1.000245391245667</v>
+        <v>0.000245391245667248</v>
       </c>
       <c r="W127">
-        <v>1.000458926112896</v>
+        <v>0.0004589261128957745</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10515,7 +10515,7 @@
         <v>1.653781006769845</v>
       </c>
       <c r="K128">
-        <v>62.31791555335646</v>
+        <v>0.1231791555335646</v>
       </c>
       <c r="L128">
         <v>0.006098867047013841</v>
@@ -10545,13 +10545,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U128">
-        <v>1.000107332331565</v>
+        <v>0.0001073323315647912</v>
       </c>
       <c r="V128">
-        <v>1.000306663804471</v>
+        <v>0.0003066638044710857</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10586,7 +10586,7 @@
         <v>1.478321100128748</v>
       </c>
       <c r="K129">
-        <v>59.65010345317843</v>
+        <v>0.09650103453178427</v>
       </c>
       <c r="L129">
         <v>0.007929904209510589</v>
@@ -10616,13 +10616,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U129">
-        <v>1.000076657723266</v>
+        <v>7.665772326559406E-05</v>
       </c>
       <c r="V129">
-        <v>1.00024525583249</v>
+        <v>0.0002452558324903542</v>
       </c>
       <c r="W129">
-        <v>0.9995412844036697</v>
+        <v>-0.0004587155963302614</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10657,7 +10657,7 @@
         <v>1.20841007637592</v>
       </c>
       <c r="K130">
-        <v>54.71855473322982</v>
+        <v>0.04718554733229818</v>
       </c>
       <c r="L130">
         <v>0.009101076661421018</v>
@@ -10687,13 +10687,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U130">
-        <v>1.000061321477848</v>
+        <v>6.132147784754238E-05</v>
       </c>
       <c r="V130">
-        <v>1.000183896772612</v>
+        <v>0.000183896772611547</v>
       </c>
       <c r="W130">
-        <v>0.9990821477742082</v>
+        <v>-0.0009178522257917709</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10728,7 +10728,7 @@
         <v>1.400598950013384</v>
       </c>
       <c r="K131">
-        <v>58.34372917665299</v>
+        <v>0.08343729176652981</v>
       </c>
       <c r="L131">
         <v>0.01009967675523272</v>
@@ -10758,13 +10758,13 @@
         <v>0.2499999999999716</v>
       </c>
       <c r="U131">
-        <v>1.000061317717755</v>
+        <v>6.131771775463868E-05</v>
       </c>
       <c r="V131">
-        <v>1.000245150614409</v>
+        <v>0.0002451506144085513</v>
       </c>
       <c r="W131">
-        <v>1.000918695452458</v>
+        <v>0.0009186954524575963</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10799,7 +10799,7 @@
         <v>1.164929052648996</v>
       </c>
       <c r="K132">
-        <v>53.80910987469058</v>
+        <v>0.03809109874690575</v>
       </c>
       <c r="L132">
         <v>0.01055819397672477</v>
@@ -10829,13 +10829,13 @@
         <v>0.2374999999999829</v>
       </c>
       <c r="U132">
-        <v>1.000030656979061</v>
+        <v>3.065697906134979E-05</v>
       </c>
       <c r="V132">
-        <v>1.000183817897736</v>
+        <v>0.0001838178977360272</v>
       </c>
       <c r="W132">
-        <v>0.9990821477742082</v>
+        <v>-0.0009178522257917709</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10870,7 +10870,7 @@
         <v>1.253488870636403</v>
       </c>
       <c r="K133">
-        <v>55.62436482246339</v>
+        <v>0.0562436482246339</v>
       </c>
       <c r="L133">
         <v>0.01078933609400595</v>
@@ -10900,13 +10900,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U133">
-        <v>1.00003065603924</v>
+        <v>3.065603923979587E-05</v>
       </c>
       <c r="V133">
-        <v>1.000153153429105</v>
+        <v>0.0001531534291054903</v>
       </c>
       <c r="W133">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10941,7 +10941,7 @@
         <v>1.439930592715099</v>
       </c>
       <c r="K134">
-        <v>59.01522760583027</v>
+        <v>0.09015227605830267</v>
       </c>
       <c r="L134">
         <v>0.01116358673821844</v>
@@ -10971,13 +10971,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U134">
-        <v>1.000061310198952</v>
+        <v>6.131019895172507E-05</v>
       </c>
       <c r="V134">
-        <v>1.000153129976724</v>
+        <v>0.0001531299767243421</v>
       </c>
       <c r="W134">
-        <v>1.000918273645546</v>
+        <v>0.0009182736455464191</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11012,7 +11012,7 @@
         <v>1.538057814861782</v>
       </c>
       <c r="K135">
-        <v>60.59979429371437</v>
+        <v>0.1059979429371437</v>
       </c>
       <c r="L135">
         <v>0.01172731964470468</v>
@@ -11042,13 +11042,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U135">
-        <v>1.000076633050302</v>
+        <v>7.663305030169987E-05</v>
       </c>
       <c r="V135">
-        <v>1.000244970450439</v>
+        <v>0.0002449704504394745</v>
       </c>
       <c r="W135">
-        <v>1.00045871559633</v>
+        <v>0.0004587155963302614</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11083,7 +11083,7 @@
         <v>1.394062565349732</v>
       </c>
       <c r="K136">
-        <v>58.22999722424059</v>
+        <v>0.08229997224240593</v>
       </c>
       <c r="L136">
         <v>0.01215959802629452</v>
@@ -11113,13 +11113,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U136">
-        <v>1.000076627178128</v>
+        <v>7.662717812761954E-05</v>
       </c>
       <c r="V136">
-        <v>1.000153069034134</v>
+        <v>0.0001530690341344787</v>
       </c>
       <c r="W136">
-        <v>0.9995414947271893</v>
+        <v>-0.0004585052728106609</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11154,7 +11154,7 @@
         <v>1.164535180974493</v>
       </c>
       <c r="K137">
-        <v>53.80070470604267</v>
+        <v>0.03800704706042668</v>
       </c>
       <c r="L137">
         <v>0.01210551209208473</v>
@@ -11184,13 +11184,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U137">
-        <v>1.000045972784112</v>
+        <v>4.597278411200278E-05</v>
       </c>
       <c r="V137">
-        <v>1.000122436486073</v>
+        <v>0.0001224364860727967</v>
       </c>
       <c r="W137">
-        <v>0.9990825688073395</v>
+        <v>-0.0009174311926605228</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11225,7 +11225,7 @@
         <v>1.251191181584464</v>
       </c>
       <c r="K138">
-        <v>55.57907261807208</v>
+        <v>0.05579072618072078</v>
       </c>
       <c r="L138">
         <v>0.01188357819939268</v>
@@ -11255,13 +11255,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U138">
-        <v>1.00007661778452</v>
+        <v>7.661778452017209E-05</v>
       </c>
       <c r="V138">
-        <v>1.000153026871518</v>
+        <v>0.0001530268715184135</v>
       </c>
       <c r="W138">
-        <v>1.000459136822773</v>
+        <v>0.0004591368227730985</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11296,7 +11296,7 @@
         <v>1.251191181584464</v>
       </c>
       <c r="K139">
-        <v>55.57907261807208</v>
+        <v>0.05579072618072078</v>
       </c>
       <c r="L139">
         <v>0.01153081776523095</v>
@@ -11326,13 +11326,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U139">
-        <v>1.000107256680559</v>
+        <v>0.000107256680558887</v>
       </c>
       <c r="V139">
-        <v>1.000122402766302</v>
+        <v>0.0001224027663024874</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11367,7 +11367,7 @@
         <v>1.141579326904603</v>
       </c>
       <c r="K140">
-        <v>53.30548873735251</v>
+        <v>0.03305488737352513</v>
       </c>
       <c r="L140">
         <v>0.01091194879632688</v>
@@ -11397,13 +11397,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U140">
-        <v>1.000091924438112</v>
+        <v>9.192443811167905E-05</v>
       </c>
       <c r="V140">
-        <v>1.000030596946425</v>
+        <v>3.059694642493227E-05</v>
       </c>
       <c r="W140">
-        <v>0.9995410738871042</v>
+        <v>-0.0004589261128957745</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11438,7 +11438,7 @@
         <v>1.141579326904603</v>
       </c>
       <c r="K141">
-        <v>53.30548873735251</v>
+        <v>0.03305488737352513</v>
       </c>
       <c r="L141">
         <v>0.0101316312733574</v>
@@ -11468,13 +11468,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U141">
-        <v>1.000107235320251</v>
+        <v>0.0001072353202506982</v>
       </c>
       <c r="V141">
-        <v>0.9999694039897197</v>
+        <v>-3.059601028032599E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11509,7 +11509,7 @@
         <v>0.9559839200933925</v>
       </c>
       <c r="K142">
-        <v>48.87483533339819</v>
+        <v>-0.01125164666601813</v>
       </c>
       <c r="L142">
         <v>0.008931780437321114</v>
@@ -11539,13 +11539,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U142">
-        <v>1.000061270755468</v>
+        <v>6.12707554683567E-05</v>
       </c>
       <c r="V142">
-        <v>0.9998776122143012</v>
+        <v>-0.0001223877856988409</v>
       </c>
       <c r="W142">
-        <v>0.9990817263544536</v>
+        <v>-0.0009182736455464191</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11580,7 +11580,7 @@
         <v>0.9559839200933926</v>
       </c>
       <c r="K143">
-        <v>48.8748353333982</v>
+        <v>-0.01125164666601802</v>
       </c>
       <c r="L143">
         <v>0.007521842085775252</v>
@@ -11610,13 +11610,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U143">
-        <v>1.000091900502389</v>
+        <v>9.190050238938596E-05</v>
       </c>
       <c r="V143">
-        <v>0.9998775972336975</v>
+        <v>-0.0001224027663024874</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11651,7 +11651,7 @@
         <v>1.046054699791552</v>
       </c>
       <c r="K144">
-        <v>51.12545133314971</v>
+        <v>0.01125451333149707</v>
       </c>
       <c r="L144">
         <v>0.006214447786164022</v>
@@ -11681,13 +11681,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U144">
-        <v>1.000091892057463</v>
+        <v>9.189205746307216E-05</v>
       </c>
       <c r="V144">
-        <v>0.999938791124713</v>
+        <v>-6.120887528704433E-05</v>
       </c>
       <c r="W144">
-        <v>1.000459558823529</v>
+        <v>0.0004595588235294379</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11722,7 +11722,7 @@
         <v>1.046054699791552</v>
       </c>
       <c r="K145">
-        <v>51.1254513331497</v>
+        <v>0.01125451333149696</v>
       </c>
       <c r="L145">
         <v>0.005029872302980134</v>
@@ -11752,13 +11752,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U145">
-        <v>1.000091883614089</v>
+        <v>9.188361408862811E-05</v>
       </c>
       <c r="V145">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11793,7 +11793,7 @@
         <v>1.14585611773968</v>
       </c>
       <c r="K146">
-        <v>53.39855306546172</v>
+        <v>0.03398553065461718</v>
       </c>
       <c r="L146">
         <v>0.004144133599224335</v>
@@ -11823,13 +11823,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U146">
-        <v>1.000107187700977</v>
+        <v>0.0001071877009770628</v>
       </c>
       <c r="V146">
-        <v>0.9999693936889785</v>
+        <v>-3.060631102147493E-05</v>
       </c>
       <c r="W146">
-        <v>1.000459347726229</v>
+        <v>0.0004593477262289092</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11864,7 +11864,7 @@
         <v>0.9469038157026247</v>
       </c>
       <c r="K147">
-        <v>48.63639426177268</v>
+        <v>-0.01363605738227319</v>
       </c>
       <c r="L147">
         <v>0.003146266139344153</v>
@@ -11894,13 +11894,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U147">
-        <v>1.000076554437861</v>
+        <v>7.65544378606986E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999693927522038</v>
+        <v>-3.06072477962438E-05</v>
       </c>
       <c r="W147">
-        <v>0.9990817263544536</v>
+        <v>-0.0009182736455464191</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11935,7 +11935,7 @@
         <v>0.9469038157026247</v>
       </c>
       <c r="K148">
-        <v>48.63639426177268</v>
+        <v>-0.01363605738227319</v>
       </c>
       <c r="L148">
         <v>0.002132621160825248</v>
@@ -11965,13 +11965,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U148">
-        <v>1.000045929146636</v>
+        <v>4.592914663636982E-05</v>
       </c>
       <c r="V148">
-        <v>0.999938783630743</v>
+        <v>-6.121636925704443E-05</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12006,7 +12006,7 @@
         <v>0.7941257672342462</v>
       </c>
       <c r="K149">
-        <v>44.26254734964535</v>
+        <v>-0.05737452650354646</v>
       </c>
       <c r="L149">
         <v>0.0008317675815576512</v>
@@ -12036,13 +12036,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U149">
-        <v>0.9999846909875844</v>
+        <v>-1.530901241564298E-05</v>
       </c>
       <c r="V149">
-        <v>0.9998163396492085</v>
+        <v>-0.0001836603507915369</v>
       </c>
       <c r="W149">
-        <v>0.9990808823529412</v>
+        <v>-0.0009191176470587648</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12077,7 +12077,7 @@
         <v>0.8790441062043113</v>
       </c>
       <c r="K150">
-        <v>46.78145144660758</v>
+        <v>-0.03218548553392414</v>
       </c>
       <c r="L150">
         <v>-0.0003959771800528191</v>
@@ -12107,13 +12107,13 @@
         <v>-0.1249999999999716</v>
       </c>
       <c r="U150">
-        <v>1.00003061849357</v>
+        <v>3.061849357033353E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998163059118881</v>
+        <v>-0.0001836940881119187</v>
       </c>
       <c r="W150">
-        <v>1.000459981600736</v>
+        <v>0.0004599816007360147</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12148,7 +12148,7 @@
         <v>0.8790441062043113</v>
       </c>
       <c r="K151">
-        <v>46.78145144660758</v>
+        <v>-0.03218548553392414</v>
       </c>
       <c r="L151">
         <v>-0.001499782306879931</v>
@@ -12178,13 +12178,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V151">
-        <v>0.9998468934684753</v>
+        <v>-0.0001531065315246716</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12219,7 +12219,7 @@
         <v>0.8790441062043112</v>
       </c>
       <c r="K152">
-        <v>46.78145144660758</v>
+        <v>-0.03218548553392425</v>
       </c>
       <c r="L152">
         <v>-0.002452737917703176</v>
@@ -12249,13 +12249,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U152">
-        <v>1.000015308778053</v>
+        <v>1.530877805322461E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999081220139654</v>
+        <v>-9.187798603460529E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12290,7 +12290,7 @@
         <v>0.9780886770981031</v>
       </c>
       <c r="K153">
-        <v>49.44614912476924</v>
+        <v>-0.005538508752307658</v>
       </c>
       <c r="L153">
         <v>-0.003077437185138387</v>
@@ -12320,13 +12320,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U153">
-        <v>1.000030617087396</v>
+        <v>3.06170873964895E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999081135716257</v>
+        <v>-9.188642837432148E-05</v>
       </c>
       <c r="W153">
-        <v>1.000459770114942</v>
+        <v>0.0004597701149424704</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12361,7 +12361,7 @@
         <v>0.7450558298559848</v>
       </c>
       <c r="K154">
-        <v>42.69524316121579</v>
+        <v>-0.0730475683878421</v>
       </c>
       <c r="L154">
         <v>-0.003954025480503119</v>
@@ -12391,13 +12391,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U154">
-        <v>0.9999693838499809</v>
+        <v>-3.061615001909157E-05</v>
       </c>
       <c r="V154">
-        <v>0.9998162102554676</v>
+        <v>-0.00018378974453237</v>
       </c>
       <c r="W154">
-        <v>0.9986213235294118</v>
+        <v>-0.001378676470588203</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12432,7 +12432,7 @@
         <v>0.6875760872824305</v>
       </c>
       <c r="K155">
-        <v>40.7434125467884</v>
+        <v>-0.09256587453211601</v>
       </c>
       <c r="L155">
         <v>-0.005080289450445469</v>
@@ -12462,13 +12462,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U155">
-        <v>0.9999234572815088</v>
+        <v>-7.654271849122374E-05</v>
       </c>
       <c r="V155">
-        <v>0.9998161764705883</v>
+        <v>-0.0001838235294117085</v>
       </c>
       <c r="W155">
-        <v>0.9995398067188218</v>
+        <v>-0.0004601932811781895</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12503,7 +12503,7 @@
         <v>0.7687847561608204</v>
       </c>
       <c r="K156">
-        <v>43.46400846587358</v>
+        <v>-0.06535991534126417</v>
       </c>
       <c r="L156">
         <v>-0.006100391762784137</v>
@@ -12533,13 +12533,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U156">
-        <v>0.999908141706727</v>
+        <v>-9.185829327296169E-05</v>
       </c>
       <c r="V156">
-        <v>0.9998467855610713</v>
+        <v>-0.0001532144389286838</v>
       </c>
       <c r="W156">
-        <v>1.000460405156538</v>
+        <v>0.0004604051565377798</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12574,7 +12574,7 @@
         <v>0.7687847561608204</v>
       </c>
       <c r="K157">
-        <v>43.46400846587358</v>
+        <v>-0.06535991534126417</v>
       </c>
       <c r="L157">
         <v>-0.006969047963672054</v>
@@ -12604,13 +12604,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U157">
-        <v>0.9998928221460069</v>
+        <v>-0.0001071778539930568</v>
       </c>
       <c r="V157">
-        <v>0.9999080572496858</v>
+        <v>-9.194275031421117E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12645,7 +12645,7 @@
         <v>0.948748565309556</v>
       </c>
       <c r="K158">
-        <v>48.68501674349397</v>
+        <v>-0.01314983256506025</v>
       </c>
       <c r="L158">
         <v>-0.007330724820218652</v>
@@ -12675,13 +12675,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U158">
-        <v>0.9999234361840593</v>
+        <v>-7.656381594067785E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999693495984797</v>
+        <v>-3.065040152028242E-05</v>
       </c>
       <c r="W158">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12716,7 +12716,7 @@
         <v>0.948748565309556</v>
       </c>
       <c r="K159">
-        <v>48.68501674349397</v>
+        <v>-0.01314983256506025</v>
       </c>
       <c r="L159">
         <v>-0.007335497073777987</v>
@@ -12746,13 +12746,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U159">
-        <v>0.9999387442572741</v>
+        <v>-6.125574272586309E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999386973180077</v>
+        <v>-6.130268199233679E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12787,7 +12787,7 @@
         <v>1.148154448022836</v>
       </c>
       <c r="K160">
-        <v>53.44841238392328</v>
+        <v>0.03448412383923272</v>
       </c>
       <c r="L160">
         <v>-0.006762375011160193</v>
@@ -12817,13 +12817,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V160">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W160">
-        <v>1.000919540229885</v>
+        <v>0.0009195402298849409</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12858,7 +12858,7 @@
         <v>1.148154448022836</v>
       </c>
       <c r="K161">
-        <v>53.44841238392328</v>
+        <v>0.03448412383923272</v>
       </c>
       <c r="L161">
         <v>-0.005850937853364972</v>
@@ -12888,13 +12888,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U161">
-        <v>0.999969370252389</v>
+        <v>-3.062974761103288E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999693467798794</v>
+        <v>-3.065322012063554E-05</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12929,7 +12929,7 @@
         <v>1.03393169844217</v>
       </c>
       <c r="K162">
-        <v>50.83414055811605</v>
+        <v>0.008341405581160588</v>
       </c>
       <c r="L162">
         <v>-0.004938573245882068</v>
@@ -12959,13 +12959,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U162">
-        <v>0.9999846846570896</v>
+        <v>-1.531534291043801E-05</v>
       </c>
       <c r="V162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W162">
-        <v>0.9995406522737713</v>
+        <v>-0.0004593477262286871</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13000,7 +13000,7 @@
         <v>1.03393169844217</v>
       </c>
       <c r="K163">
-        <v>50.83414055811605</v>
+        <v>0.008341405581160588</v>
       </c>
       <c r="L163">
         <v>-0.004065784873080407</v>
@@ -13030,13 +13030,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U163">
-        <v>0.9999693688450522</v>
+        <v>-3.063115494783553E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13071,7 +13071,7 @@
         <v>1.03393169844217</v>
       </c>
       <c r="K164">
-        <v>50.83414055811605</v>
+        <v>0.008341405581160588</v>
       </c>
       <c r="L164">
         <v>-0.003257775916621117</v>
@@ -13101,13 +13101,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U164">
-        <v>0.9999387358135119</v>
+        <v>-6.126418648810805E-05</v>
       </c>
       <c r="V164">
-        <v>1.000061308319539</v>
+        <v>6.130831953909954E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13142,7 +13142,7 @@
         <v>0.7669553367304822</v>
       </c>
       <c r="K165">
-        <v>43.40547385592846</v>
+        <v>-0.06594526144071539</v>
       </c>
       <c r="L165">
         <v>-0.003030700682694155</v>
@@ -13172,13 +13172,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U165">
-        <v>0.9998774641199627</v>
+        <v>-0.0001225358800373</v>
       </c>
       <c r="V165">
-        <v>0.9999386954389408</v>
+        <v>-6.130456105923887E-05</v>
       </c>
       <c r="W165">
-        <v>0.9986213235294118</v>
+        <v>-0.001378676470588203</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13213,7 +13213,7 @@
         <v>0.9481586338751736</v>
       </c>
       <c r="K166">
-        <v>48.6694778026955</v>
+        <v>-0.01330522197304496</v>
       </c>
       <c r="L166">
         <v>-0.002824332091882755</v>
@@ -13243,13 +13243,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U166">
-        <v>0.9999234056894253</v>
+        <v>-7.659431057471799E-05</v>
       </c>
       <c r="V166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W166">
-        <v>1.000920386562356</v>
+        <v>0.0009203865623561569</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13284,7 +13284,7 @@
         <v>0.7962765883506796</v>
       </c>
       <c r="K167">
-        <v>44.32928611967333</v>
+        <v>-0.05670713880326667</v>
       </c>
       <c r="L167">
         <v>-0.00296810548600116</v>
@@ -13314,13 +13314,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U167">
-        <v>0.9999233998222876</v>
+        <v>-7.660017771238259E-05</v>
       </c>
       <c r="V167">
-        <v>0.999938691680461</v>
+        <v>-6.130831953898852E-05</v>
       </c>
       <c r="W167">
-        <v>0.9990804597701149</v>
+        <v>-0.0009195402298850519</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13355,7 +13355,7 @@
         <v>0.6813836047288452</v>
       </c>
       <c r="K168">
-        <v>40.52517241231998</v>
+        <v>-0.09474827587680024</v>
       </c>
       <c r="L168">
         <v>-0.003638808659918992</v>
@@ -13385,13 +13385,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U168">
-        <v>0.9998774303268012</v>
+        <v>-0.0001225696731987913</v>
       </c>
       <c r="V168">
-        <v>0.9998467198038014</v>
+        <v>-0.0001532801961986463</v>
       </c>
       <c r="W168">
-        <v>0.9990796134376437</v>
+        <v>-0.0009203865623562679</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13426,7 +13426,7 @@
         <v>0.6332908995121891</v>
       </c>
       <c r="K169">
-        <v>38.7739195572162</v>
+        <v>-0.112260804427838</v>
       </c>
       <c r="L169">
         <v>-0.0047402025124019</v>
@@ -13456,13 +13456,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U169">
-        <v>0.9998620922143393</v>
+        <v>-0.0001379077856606958</v>
       </c>
       <c r="V169">
-        <v>0.9999080177832287</v>
+        <v>-9.198221677131357E-05</v>
       </c>
       <c r="W169">
-        <v>0.9995393827729158</v>
+        <v>-0.0004606172270842368</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13497,7 +13497,7 @@
         <v>0.6332908995121892</v>
       </c>
       <c r="K170">
-        <v>38.77391955721621</v>
+        <v>-0.1122608044278379</v>
       </c>
       <c r="L170">
         <v>-0.006015194512279306</v>
@@ -13527,13 +13527,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U170">
-        <v>0.999877398393919</v>
+        <v>-0.0001226016060810187</v>
       </c>
       <c r="V170">
-        <v>0.999938672881148</v>
+        <v>-6.132711885198372E-05</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13568,7 +13568,7 @@
         <v>0.6332908995121892</v>
       </c>
       <c r="K171">
-        <v>38.77391955721621</v>
+        <v>-0.1122608044278379</v>
       </c>
       <c r="L171">
         <v>-0.007292347579641697</v>
@@ -13598,13 +13598,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U171">
-        <v>0.999877383360922</v>
+        <v>-0.000122616639077977</v>
       </c>
       <c r="V171">
-        <v>0.9999080036798529</v>
+        <v>-9.199632014711412E-05</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13639,7 +13639,7 @@
         <v>0.6332908995121892</v>
       </c>
       <c r="K172">
-        <v>38.77391955721621</v>
+        <v>-0.1122608044278379</v>
       </c>
       <c r="L172">
         <v>-0.008463020507353192</v>
@@ -13669,13 +13669,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U172">
-        <v>0.9999080262431786</v>
+        <v>-9.197375682135078E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999079952157511</v>
+        <v>-9.200478424886693E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13710,7 +13710,7 @@
         <v>0.539747391226241</v>
       </c>
       <c r="K173">
-        <v>35.05428191025483</v>
+        <v>-0.1494571808974517</v>
       </c>
       <c r="L173">
         <v>-0.009798753743916238</v>
@@ -13740,13 +13740,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U173">
-        <v>0.9998773570443047</v>
+        <v>-0.0001226429556953068</v>
       </c>
       <c r="V173">
-        <v>0.9997853024168813</v>
+        <v>-0.0002146975831186504</v>
       </c>
       <c r="W173">
-        <v>0.999078341013825</v>
+        <v>-0.0009216589861750224</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13781,7 +13781,7 @@
         <v>0.6952317837907969</v>
       </c>
       <c r="K174">
-        <v>41.01101633642997</v>
+        <v>-0.08988983663570033</v>
       </c>
       <c r="L174">
         <v>-0.01077905999964392</v>
@@ -13811,13 +13811,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U174">
-        <v>0.9998926742510196</v>
+        <v>-0.0001073257489804247</v>
       </c>
       <c r="V174">
-        <v>0.999846611651379</v>
+        <v>-0.0001533883486209975</v>
       </c>
       <c r="W174">
-        <v>1.000922509225092</v>
+        <v>0.0009225092250921829</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13852,7 +13852,7 @@
         <v>0.8588995654376976</v>
       </c>
       <c r="K175">
-        <v>46.20473216558425</v>
+        <v>-0.03795267834415755</v>
       </c>
       <c r="L175">
         <v>-0.01110751836318872</v>
@@ -13882,13 +13882,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U175">
-        <v>0.9999233305221192</v>
+        <v>-7.666947788076417E-05</v>
       </c>
       <c r="V175">
-        <v>0.9998465881197841</v>
+        <v>-0.0001534118802158924</v>
       </c>
       <c r="W175">
-        <v>1.000921658986175</v>
+        <v>0.0009216589861751334</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13923,7 +13923,7 @@
         <v>1.031181440855512</v>
       </c>
       <c r="K176">
-        <v>50.76756906666051</v>
+        <v>0.007675690666605117</v>
       </c>
       <c r="L176">
         <v>-0.01064469209124233</v>
@@ -13953,13 +13953,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U176">
-        <v>0.9999386597147677</v>
+        <v>-6.134028523230306E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999079387485804</v>
+        <v>-9.206125141958399E-05</v>
       </c>
       <c r="W176">
-        <v>1.000920810313076</v>
+        <v>0.0009208103130755596</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13994,7 +13994,7 @@
         <v>0.9454528174312544</v>
       </c>
       <c r="K177">
-        <v>48.59808518407635</v>
+        <v>-0.01401914815923644</v>
       </c>
       <c r="L177">
         <v>-0.009860519143168855</v>
@@ -14024,13 +14024,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U177">
-        <v>0.9999539919639295</v>
+        <v>-4.600803607046622E-05</v>
       </c>
       <c r="V177">
-        <v>0.9999079302725264</v>
+        <v>-9.20697274735538E-05</v>
       </c>
       <c r="W177">
-        <v>0.9995400183992641</v>
+        <v>-0.0004599816007359037</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14065,7 +14065,7 @@
         <v>0.8693723808975657</v>
       </c>
       <c r="K178">
-        <v>46.50611027430195</v>
+        <v>-0.03493889725698052</v>
       </c>
       <c r="L178">
         <v>-0.009063145574027355</v>
@@ -14095,13 +14095,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U178">
-        <v>0.9999386531294574</v>
+        <v>-6.134687054260013E-05</v>
       </c>
       <c r="V178">
-        <v>0.9998772290598815</v>
+        <v>-0.0001227709401184773</v>
       </c>
       <c r="W178">
-        <v>0.9995398067188218</v>
+        <v>-0.0004601932811781895</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14136,7 +14136,7 @@
         <v>0.8693723808975656</v>
       </c>
       <c r="K179">
-        <v>46.50611027430195</v>
+        <v>-0.03493889725698052</v>
       </c>
       <c r="L179">
         <v>-0.008275568013845935</v>
@@ -14166,13 +14166,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U179">
-        <v>0.9999693246828938</v>
+        <v>-3.067531710621019E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998772139853271</v>
+        <v>-0.0001227860146728599</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14207,7 +14207,7 @@
         <v>0.6408214647448937</v>
       </c>
       <c r="K180">
-        <v>39.05491721760997</v>
+        <v>-0.1094508278239003</v>
       </c>
       <c r="L180">
         <v>-0.008184113605775738</v>
@@ -14237,13 +14237,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U180">
-        <v>0.999892633096615</v>
+        <v>-0.0001073669033849756</v>
       </c>
       <c r="V180">
-        <v>0.9998464986338377</v>
+        <v>-0.000153501366162323</v>
       </c>
       <c r="W180">
-        <v>0.9981583793738491</v>
+        <v>-0.001841620626150897</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14278,7 +14278,7 @@
         <v>0.7100035313212647</v>
       </c>
       <c r="K181">
-        <v>41.52058860209884</v>
+        <v>-0.0847941139790116</v>
       </c>
       <c r="L181">
         <v>-0.008323040793372061</v>
@@ -14308,13 +14308,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U181">
-        <v>0.9999079613437644</v>
+        <v>-9.203865623563789E-05</v>
       </c>
       <c r="V181">
-        <v>0.9998157700810612</v>
+        <v>-0.0001842299189388497</v>
       </c>
       <c r="W181">
-        <v>1.000461254612546</v>
+        <v>0.0004612546125462025</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14349,7 +14349,7 @@
         <v>0.6618085000465012</v>
       </c>
       <c r="K182">
-        <v>39.8245947128073</v>
+        <v>-0.101754052871927</v>
       </c>
       <c r="L182">
         <v>-0.008730043081028109</v>
@@ -14379,13 +14379,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U182">
-        <v>0.9998926116838488</v>
+        <v>-0.0001073883161512024</v>
       </c>
       <c r="V182">
-        <v>0.9998464467784536</v>
+        <v>-0.0001535532215464208</v>
       </c>
       <c r="W182">
-        <v>0.9995389580451821</v>
+        <v>-0.0004610419548178868</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14420,7 +14420,7 @@
         <v>0.6618085000465012</v>
       </c>
       <c r="K183">
-        <v>39.8245947128073</v>
+        <v>-0.101754052871927</v>
       </c>
       <c r="L183">
         <v>-0.009241865106944381</v>
@@ -14450,13 +14450,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U183">
-        <v>0.999877257314697</v>
+        <v>-0.00012274268530299</v>
       </c>
       <c r="V183">
-        <v>0.9999078539177441</v>
+        <v>-9.214608225593945E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14491,7 +14491,7 @@
         <v>0.6155136942241268</v>
       </c>
       <c r="K184">
-        <v>38.10018425871258</v>
+        <v>-0.1189981574128742</v>
       </c>
       <c r="L184">
         <v>-0.009918640701327619</v>
@@ -14521,13 +14521,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U184">
-        <v>0.9999079316853104</v>
+        <v>-9.20683146895529E-05</v>
       </c>
       <c r="V184">
-        <v>0.9999078454260614</v>
+        <v>-9.21545739386298E-05</v>
       </c>
       <c r="W184">
-        <v>0.9995387453874538</v>
+        <v>-0.0004612546125462025</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14562,7 +14562,7 @@
         <v>0.5732995561494134</v>
       </c>
       <c r="K185">
-        <v>36.43931341038071</v>
+        <v>-0.1356068658961929</v>
       </c>
       <c r="L185">
         <v>-0.01078388626420351</v>
@@ -14592,13 +14592,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U185">
-        <v>0.9999079232079555</v>
+        <v>-9.207679204448205E-05</v>
       </c>
       <c r="V185">
-        <v>0.9998771159104175</v>
+        <v>-0.0001228840895824979</v>
       </c>
       <c r="W185">
-        <v>0.9995385325334564</v>
+        <v>-0.0004614674665436302</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14633,7 +14633,7 @@
         <v>0.5732995561494134</v>
       </c>
       <c r="K186">
-        <v>36.43931341038071</v>
+        <v>-0.1356068658961929</v>
       </c>
       <c r="L186">
         <v>-0.01166912591153077</v>
@@ -14663,13 +14663,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U186">
-        <v>0.9998925671838788</v>
+        <v>-0.0001074328161212446</v>
       </c>
       <c r="V186">
-        <v>0.9998771008080621</v>
+        <v>-0.0001228991919378641</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14704,7 +14704,7 @@
         <v>0.5732995561494134</v>
       </c>
       <c r="K187">
-        <v>36.43931341038071</v>
+        <v>-0.1356068658961929</v>
       </c>
       <c r="L187">
         <v>-0.01246777795432271</v>
@@ -14734,13 +14734,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U187">
-        <v>0.9998925556408289</v>
+        <v>-0.0001074443591710939</v>
       </c>
       <c r="V187">
-        <v>0.9998770857019943</v>
+        <v>-0.0001229142980057052</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14775,7 +14775,7 @@
         <v>0.5732995561494134</v>
       </c>
       <c r="K188">
-        <v>36.43931341038071</v>
+        <v>-0.1356068658961929</v>
       </c>
       <c r="L188">
         <v>-0.0131178584704721</v>
@@ -14805,13 +14805,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U188">
-        <v>0.9998618424082402</v>
+        <v>-0.0001381575917598354</v>
       </c>
       <c r="V188">
-        <v>0.9999385352961064</v>
+        <v>-6.146470389356562E-05</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14846,7 +14846,7 @@
         <v>0.4906683932875063</v>
       </c>
       <c r="K189">
-        <v>32.91599899058642</v>
+        <v>-0.1708400100941359</v>
       </c>
       <c r="L189">
         <v>-0.01392427241685082</v>
@@ -14876,13 +14876,13 @@
         <v>-0.2437499999999773</v>
       </c>
       <c r="U189">
-        <v>0.999831117388768</v>
+        <v>-0.0001688826112320463</v>
       </c>
       <c r="V189">
-        <v>0.9998155945538924</v>
+        <v>-0.0001844054461076494</v>
       </c>
       <c r="W189">
-        <v>0.9990766389658357</v>
+        <v>-0.0009233610341643494</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14917,7 +14917,7 @@
         <v>0.4560711675331482</v>
       </c>
       <c r="K190">
-        <v>31.32203821505624</v>
+        <v>-0.1867796178494376</v>
       </c>
       <c r="L190">
         <v>-0.01489130873144623</v>
@@ -14947,13 +14947,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U190">
-        <v>0.9997850221887812</v>
+        <v>-0.0002149778112188194</v>
       </c>
       <c r="V190">
-        <v>0.999723340813378</v>
+        <v>-0.0002766591866220081</v>
       </c>
       <c r="W190">
-        <v>0.9995378927911276</v>
+        <v>-0.0004621072088724087</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14988,7 +14988,7 @@
         <v>0.4245597185733682</v>
       </c>
       <c r="K191">
-        <v>29.80287263762769</v>
+        <v>-0.2019712736237231</v>
       </c>
       <c r="L191">
         <v>-0.01600789080077516</v>
@@ -15018,13 +15018,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U191">
-        <v>0.9997696171036263</v>
+        <v>-0.0002303828963736709</v>
       </c>
       <c r="V191">
-        <v>0.9996310190025213</v>
+        <v>-0.0003689809974787295</v>
       </c>
       <c r="W191">
-        <v>0.9995376791493296</v>
+        <v>-0.000462320850670439</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15059,7 +15059,7 @@
         <v>0.4245597185733682</v>
       </c>
       <c r="K192">
-        <v>29.80287263762769</v>
+        <v>-0.2019712736237231</v>
       </c>
       <c r="L192">
         <v>-0.01708603201515981</v>
@@ -15089,13 +15089,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U192">
-        <v>0.9997849264141088</v>
+        <v>-0.0002150735858912345</v>
       </c>
       <c r="V192">
-        <v>0.9996616425715165</v>
+        <v>-0.0003383574284835378</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15130,7 +15130,7 @@
         <v>0.4245597185733682</v>
       </c>
       <c r="K193">
-        <v>29.80287263762769</v>
+        <v>-0.2019712736237231</v>
       </c>
       <c r="L193">
         <v>-0.01801032669513267</v>
@@ -15160,13 +15160,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U193">
-        <v>0.9997848801475108</v>
+        <v>-0.0002151198524892317</v>
       </c>
       <c r="V193">
-        <v>0.9996922982245607</v>
+        <v>-0.0003077017754392619</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15201,7 +15201,7 @@
         <v>0.2861836454251133</v>
       </c>
       <c r="K194">
-        <v>22.25060522601521</v>
+        <v>-0.2774939477398479</v>
       </c>
       <c r="L194">
         <v>-0.01972420176953138</v>
@@ -15231,13 +15231,13 @@
         <v>-0.2687499999999829</v>
       </c>
       <c r="U194">
-        <v>0.9996926198014324</v>
+        <v>-0.000307380198567575</v>
       </c>
       <c r="V194">
-        <v>0.9995075256240573</v>
+        <v>-0.0004924743759426864</v>
       </c>
       <c r="W194">
-        <v>0.9972247918593895</v>
+        <v>-0.002775208140610497</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15272,7 +15272,7 @@
         <v>0.4005444903148502</v>
       </c>
       <c r="K195">
-        <v>28.59919788944408</v>
+        <v>-0.2140080211055592</v>
       </c>
       <c r="L195">
         <v>-0.02140062382539387</v>
@@ -15302,13 +15302,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U195">
-        <v>0.999769393967346</v>
+        <v>-0.0002306060326540127</v>
       </c>
       <c r="V195">
-        <v>0.9996920518584672</v>
+        <v>-0.0003079481415327878</v>
       </c>
       <c r="W195">
-        <v>1.000927643784787</v>
+        <v>0.0009276437847867136</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15343,7 +15343,7 @@
         <v>0.3575077640501964</v>
       </c>
       <c r="K196">
-        <v>26.33559626823445</v>
+        <v>-0.2366440373176555</v>
       </c>
       <c r="L196">
         <v>-0.02320604676185976</v>
@@ -15373,13 +15373,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U196">
-        <v>0.999707831649521</v>
+        <v>-0.0002921683504789607</v>
       </c>
       <c r="V196">
-        <v>0.9995995440963559</v>
+        <v>-0.0004004559036441258</v>
       </c>
       <c r="W196">
-        <v>0.9990732159406858</v>
+        <v>-0.000926784059314234</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15414,7 +15414,7 @@
         <v>0.3211819022540488</v>
       </c>
       <c r="K197">
-        <v>24.31019541715528</v>
+        <v>-0.2568980458284472</v>
       </c>
       <c r="L197">
         <v>-0.0252267939473438</v>
@@ -15444,13 +15444,13 @@
         <v>-0.3625000000000114</v>
       </c>
       <c r="U197">
-        <v>0.9997077462622285</v>
+        <v>-0.0002922537377715306</v>
       </c>
       <c r="V197">
-        <v>0.999568567026194</v>
+        <v>-0.0004314329738059897</v>
       </c>
       <c r="W197">
-        <v>0.9990723562152134</v>
+        <v>-0.0009276437847866026</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15485,7 +15485,7 @@
         <v>0.3746601104276395</v>
       </c>
       <c r="K198">
-        <v>27.25474519742102</v>
+        <v>-0.2274525480257898</v>
       </c>
       <c r="L198">
         <v>-0.02699045291911929</v>
@@ -15515,13 +15515,13 @@
         <v>-0.3812499999999943</v>
       </c>
       <c r="U198">
-        <v>0.9997538196421154</v>
+        <v>-0.0002461803578845956</v>
       </c>
       <c r="V198">
-        <v>0.9995992107534839</v>
+        <v>-0.0004007892465160978</v>
       </c>
       <c r="W198">
-        <v>1.000464252553389</v>
+        <v>0.0004642525533891106</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15556,7 +15556,7 @@
         <v>0.3746601104276395</v>
       </c>
       <c r="K199">
-        <v>27.25474519742102</v>
+        <v>-0.2274525480257898</v>
       </c>
       <c r="L199">
         <v>-0.02838849498610995</v>
@@ -15586,13 +15586,13 @@
         <v>-0.3875000000000171</v>
       </c>
       <c r="U199">
-        <v>0.9997691490835218</v>
+        <v>-0.0002308509164782313</v>
       </c>
       <c r="V199">
-        <v>0.9996298923603614</v>
+        <v>-0.0003701076396386282</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15627,7 +15627,7 @@
         <v>0.3537013153332731</v>
       </c>
       <c r="K200">
-        <v>26.12846063802442</v>
+        <v>-0.2387153936197558</v>
       </c>
       <c r="L200">
         <v>-0.02954131708387935</v>
@@ -15657,13 +15657,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U200">
-        <v>0.9997537021643423</v>
+        <v>-0.0002462978356576606</v>
       </c>
       <c r="V200">
-        <v>0.9996297553299807</v>
+        <v>-0.0003702446700193374</v>
       </c>
       <c r="W200">
-        <v>0.9995359628770302</v>
+        <v>-0.0004640371229698292</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15698,7 +15698,7 @@
         <v>0.3340318254620265</v>
       </c>
       <c r="K201">
-        <v>25.03926961010383</v>
+        <v>-0.2496073038989617</v>
       </c>
       <c r="L201">
         <v>-0.0305333804572385</v>
@@ -15728,13 +15728,13 @@
         <v>-0.4374999999999716</v>
       </c>
       <c r="U201">
-        <v>0.9997382440796969</v>
+        <v>-0.0002617559203030861</v>
       </c>
       <c r="V201">
-        <v>0.9995987530479336</v>
+        <v>-0.0004012469520664474</v>
       </c>
       <c r="W201">
-        <v>0.999535747446611</v>
+        <v>-0.0004642525533889996</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15769,7 +15769,7 @@
         <v>0.3925691429180012</v>
       </c>
       <c r="K202">
-        <v>28.19028016773433</v>
+        <v>-0.2180971983226567</v>
       </c>
       <c r="L202">
         <v>-0.03108624214122504</v>
@@ -15799,13 +15799,13 @@
         <v>-0.3875000000000171</v>
       </c>
       <c r="U202">
-        <v>0.9997535769840903</v>
+        <v>-0.0002464230159097136</v>
       </c>
       <c r="V202">
-        <v>0.9996294695238684</v>
+        <v>-0.0003705304761315587</v>
       </c>
       <c r="W202">
-        <v>1.000464468183929</v>
+        <v>0.0004644681839294229</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15840,7 +15840,7 @@
         <v>0.3697837247240789</v>
       </c>
       <c r="K203">
-        <v>26.99577444596707</v>
+        <v>-0.2300422555403293</v>
       </c>
       <c r="L203">
         <v>-0.03139325331618013</v>
@@ -15870,13 +15870,13 @@
         <v>-0.3687500000000057</v>
       </c>
       <c r="U203">
-        <v>0.9997689214795188</v>
+        <v>-0.0002310785204812094</v>
       </c>
       <c r="V203">
-        <v>0.9995984431951564</v>
+        <v>-0.0004015568048435503</v>
       </c>
       <c r="W203">
-        <v>0.999535747446611</v>
+        <v>-0.0004642525533889996</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15911,7 +15911,7 @@
         <v>0.3295187553599842</v>
       </c>
       <c r="K204">
-        <v>24.78481435718918</v>
+        <v>-0.2521518564281082</v>
       </c>
       <c r="L204">
         <v>-0.0317544995899326</v>
@@ -15941,13 +15941,13 @@
         <v>-0.3374999999999773</v>
       </c>
       <c r="U204">
-        <v>0.9997072328885327</v>
+        <v>-0.0002927671114673069</v>
       </c>
       <c r="V204">
-        <v>0.999598281882513</v>
+        <v>-0.0004017181174870155</v>
       </c>
       <c r="W204">
-        <v>0.9990710636321412</v>
+        <v>-0.0009289363678588458</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15982,7 +15982,7 @@
         <v>0.2956335799948166</v>
       </c>
       <c r="K205">
-        <v>22.81768430206937</v>
+        <v>-0.2718231569793064</v>
       </c>
       <c r="L205">
         <v>-0.03234737420618687</v>
@@ -16012,13 +16012,13 @@
         <v>-0.3062500000000057</v>
       </c>
       <c r="U205">
-        <v>0.9996454939194501</v>
+        <v>-0.0003545060805498768</v>
       </c>
       <c r="V205">
-        <v>0.9995672066279213</v>
+        <v>-0.0004327933720786881</v>
       </c>
       <c r="W205">
-        <v>0.9990701999070201</v>
+        <v>-0.0009298000929799377</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16053,7 +16053,7 @@
         <v>0.3497558493153876</v>
       </c>
       <c r="K206">
-        <v>25.91252703166931</v>
+        <v>-0.2408747296833069</v>
       </c>
       <c r="L206">
         <v>-0.03275762544776358</v>
@@ -16083,13 +16083,13 @@
         <v>-0.2874999999999943</v>
       </c>
       <c r="U206">
-        <v>0.9996299494264216</v>
+        <v>-0.0003700505735784176</v>
       </c>
       <c r="V206">
-        <v>0.9996288736314716</v>
+        <v>-0.0003711263685284294</v>
       </c>
       <c r="W206">
-        <v>1.00046533271289</v>
+        <v>0.0004653327128896212</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16124,7 +16124,7 @@
         <v>0.3497558493153876</v>
       </c>
       <c r="K207">
-        <v>25.91252703166931</v>
+        <v>-0.2408747296833069</v>
       </c>
       <c r="L207">
         <v>-0.03291245165225645</v>
@@ -16154,13 +16154,13 @@
         <v>-0.2750000000000057</v>
       </c>
       <c r="U207">
-        <v>0.9996452369200396</v>
+        <v>-0.0003547630799604073</v>
       </c>
       <c r="V207">
-        <v>0.999628735845554</v>
+        <v>-0.0003712641544459938</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16195,7 +16195,7 @@
         <v>0.469694396286182</v>
       </c>
       <c r="K208">
-        <v>31.95864374750749</v>
+        <v>-0.1804135625249251</v>
       </c>
       <c r="L208">
         <v>-0.03244633390422594</v>
@@ -16225,13 +16225,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U208">
-        <v>0.9996914008856793</v>
+        <v>-0.0003085991143206845</v>
       </c>
       <c r="V208">
-        <v>0.9996904982977407</v>
+        <v>-0.0003095017022592961</v>
       </c>
       <c r="W208">
-        <v>1.00093023255814</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16266,7 +16266,7 @@
         <v>0.4170423411093842</v>
       </c>
       <c r="K209">
-        <v>29.43047846988729</v>
+        <v>-0.2056952153011271</v>
       </c>
       <c r="L209">
         <v>-0.03185267425194464</v>
@@ -16296,13 +16296,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U209">
-        <v>0.999660436185155</v>
+        <v>-0.000339563814845012</v>
       </c>
       <c r="V209">
-        <v>0.9998142414860681</v>
+        <v>-0.0001857585139318774</v>
       </c>
       <c r="W209">
-        <v>0.9990706319702602</v>
+        <v>-0.0009293680297397522</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16337,7 +16337,7 @@
         <v>0.4760415716876085</v>
       </c>
       <c r="K210">
-        <v>32.25123064408911</v>
+        <v>-0.1774876935591089</v>
       </c>
       <c r="L210">
         <v>-0.03093531367226304</v>
@@ -16367,13 +16367,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U210">
-        <v>0.9997375206509489</v>
+        <v>-0.0002624793490511035</v>
       </c>
       <c r="V210">
-        <v>0.9997832414690033</v>
+        <v>-0.0002167585309966746</v>
       </c>
       <c r="W210">
-        <v>1.00046511627907</v>
+        <v>0.0004651162790696439</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16408,7 +16408,7 @@
         <v>0.4482059841057207</v>
       </c>
       <c r="K211">
-        <v>30.94904930823716</v>
+        <v>-0.1905095069176284</v>
       </c>
       <c r="L211">
         <v>-0.02993636708942047</v>
@@ -16438,13 +16438,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U211">
-        <v>0.9997065637065637</v>
+        <v>-0.0002934362934362555</v>
       </c>
       <c r="V211">
-        <v>0.9998141666924769</v>
+        <v>-0.0001858333075230867</v>
       </c>
       <c r="W211">
-        <v>0.99953509995351</v>
+        <v>-0.0004649000464900244</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16479,7 +16479,7 @@
         <v>0.4482059841057207</v>
       </c>
       <c r="K212">
-        <v>30.94904930823716</v>
+        <v>-0.1905095069176284</v>
       </c>
       <c r="L212">
         <v>-0.02884283615558308</v>
@@ -16509,13 +16509,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U212">
-        <v>0.9997219261250405</v>
+        <v>-0.0002780738749594835</v>
       </c>
       <c r="V212">
-        <v>0.9998760881013599</v>
+        <v>-0.0001239118986401389</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16550,7 +16550,7 @@
         <v>0.4482059841057207</v>
       </c>
       <c r="K213">
-        <v>30.94904930823716</v>
+        <v>-0.1905095069176284</v>
       </c>
       <c r="L213">
         <v>-0.02765679587596945</v>
@@ -16580,13 +16580,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U213">
-        <v>0.9997218487784525</v>
+        <v>-0.0002781512215475068</v>
       </c>
       <c r="V213">
-        <v>0.9998450909316231</v>
+        <v>-0.0001549090683768961</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16621,7 +16621,7 @@
         <v>0.3521416662473699</v>
       </c>
       <c r="K214">
-        <v>26.04325234830436</v>
+        <v>-0.2395674765169564</v>
       </c>
       <c r="L214">
         <v>-0.02706487340714785</v>
@@ -16651,13 +16651,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U214">
-        <v>0.9996753999536284</v>
+        <v>-0.0003246000463715815</v>
       </c>
       <c r="V214">
-        <v>0.9997211204759545</v>
+        <v>-0.0002788795240454833</v>
       </c>
       <c r="W214">
-        <v>0.9981395348837209</v>
+        <v>-0.001860465116279131</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16692,7 +16692,7 @@
         <v>0.6341557908175037</v>
       </c>
       <c r="K215">
-        <v>38.80632399804798</v>
+        <v>-0.1119367600195202</v>
       </c>
       <c r="L215">
         <v>-0.02592850801660744</v>
@@ -16722,13 +16722,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U215">
-        <v>0.9997680675387328</v>
+        <v>-0.0002319324612671814</v>
       </c>
       <c r="V215">
-        <v>0.9999070142268233</v>
+        <v>-9.298577317673473E-05</v>
       </c>
       <c r="W215">
-        <v>1.002329916123019</v>
+        <v>0.002329916123019471</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16763,7 +16763,7 @@
         <v>0.5668468184884975</v>
       </c>
       <c r="K216">
-        <v>36.17755174276207</v>
+        <v>-0.1382244825723793</v>
       </c>
       <c r="L216">
         <v>-0.02477785494360867</v>
@@ -16793,13 +16793,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U216">
-        <v>0.9997370822313986</v>
+        <v>-0.0002629177686014339</v>
       </c>
       <c r="V216">
-        <v>0.9998760074395537</v>
+        <v>-0.0001239925604462622</v>
       </c>
       <c r="W216">
-        <v>0.9990701999070201</v>
+        <v>-0.0009298000929799377</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16834,7 +16834,7 @@
         <v>0.5668468184884974</v>
       </c>
       <c r="K217">
-        <v>36.17755174276207</v>
+        <v>-0.1382244825723793</v>
       </c>
       <c r="L217">
         <v>-0.02360174163262592</v>
@@ -16864,13 +16864,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U217">
-        <v>0.9997370130874663</v>
+        <v>-0.0002629869125336803</v>
       </c>
       <c r="V217">
-        <v>0.999844990079365</v>
+        <v>-0.0001550099206349964</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16905,7 +16905,7 @@
         <v>0.684452901785093</v>
       </c>
       <c r="K218">
-        <v>40.63354345258016</v>
+        <v>-0.09366456547419844</v>
       </c>
       <c r="L218">
         <v>-0.02206132886979854</v>
@@ -16935,13 +16935,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U218">
-        <v>0.9997678916827853</v>
+        <v>-0.0002321083172146521</v>
       </c>
       <c r="V218">
-        <v>0.9999379864190259</v>
+        <v>-6.201358097412957E-05</v>
       </c>
       <c r="W218">
-        <v>1.000930665425779</v>
+        <v>0.0009306654257794644</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16976,7 +16976,7 @@
         <v>0.644556201608411</v>
       </c>
       <c r="K219">
-        <v>39.19332163765649</v>
+        <v>-0.1080667836234351</v>
       </c>
       <c r="L219">
         <v>-0.02048683015804832</v>
@@ -17006,13 +17006,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U219">
-        <v>0.999783315276273</v>
+        <v>-0.0002166847237270453</v>
       </c>
       <c r="V219">
-        <v>0.9999689912865516</v>
+        <v>-3.10087134484105E-05</v>
       </c>
       <c r="W219">
-        <v>0.99953509995351</v>
+        <v>-0.0004649000464900244</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17047,7 +17047,7 @@
         <v>0.7059140048878496</v>
       </c>
       <c r="K220">
-        <v>41.38039800747505</v>
+        <v>-0.0861960199252495</v>
       </c>
       <c r="L220">
         <v>-0.01874832119771351</v>
@@ -17077,13 +17077,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U220">
-        <v>0.9998142299832807</v>
+        <v>-0.0001857700167192666</v>
       </c>
       <c r="V220">
-        <v>1.000062019350037</v>
+        <v>6.201935003713466E-05</v>
       </c>
       <c r="W220">
-        <v>1.00046511627907</v>
+        <v>0.0004651162790696439</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17118,7 +17118,7 @@
         <v>0.6630870918965611</v>
       </c>
       <c r="K221">
-        <v>39.87085794408914</v>
+        <v>-0.1012914205591086</v>
       </c>
       <c r="L221">
         <v>-0.01712189048077117</v>
@@ -17148,13 +17148,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U221">
-        <v>0.9998141954663693</v>
+        <v>-0.0001858045336307068</v>
       </c>
       <c r="V221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W221">
-        <v>0.99953509995351</v>
+        <v>-0.0004649000464900244</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17189,7 +17189,7 @@
         <v>0.5879872117336015</v>
       </c>
       <c r="K222">
-        <v>37.02720068455069</v>
+        <v>-0.1297279931544931</v>
       </c>
       <c r="L222">
         <v>-0.01594285480217887</v>
@@ -17219,13 +17219,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U222">
-        <v>0.9997831877594004</v>
+        <v>-0.000216812240599551</v>
       </c>
       <c r="V222">
-        <v>0.9999379844961239</v>
+        <v>-6.201550387607835E-05</v>
       </c>
       <c r="W222">
-        <v>0.9990697674418605</v>
+        <v>-0.0009302325581395099</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17260,7 +17260,7 @@
         <v>0.5879872117336015</v>
       </c>
       <c r="K223">
-        <v>37.02720068455069</v>
+        <v>-0.1297279931544931</v>
       </c>
       <c r="L223">
         <v>-0.01505211866646605</v>
@@ -17290,13 +17290,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U223">
-        <v>0.9997831407416586</v>
+        <v>-0.000216859258341362</v>
       </c>
       <c r="V223">
-        <v>0.9998759612999257</v>
+        <v>-0.0001240387000742693</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17331,7 +17331,7 @@
         <v>0.4948386177572471</v>
       </c>
       <c r="K224">
-        <v>33.10314651220804</v>
+        <v>-0.1689685348779196</v>
       </c>
       <c r="L224">
         <v>-0.01484559138672287</v>
@@ -17361,13 +17361,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U224">
-        <v>0.9998295736241943</v>
+        <v>-0.0001704263758056657</v>
       </c>
       <c r="V224">
-        <v>0.9998449323905223</v>
+        <v>-0.0001550676094776993</v>
       </c>
       <c r="W224">
-        <v>0.9986033519553073</v>
+        <v>-0.00139664804469275</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17402,7 +17402,7 @@
         <v>0.5504243797133943</v>
       </c>
       <c r="K225">
-        <v>35.50153022072213</v>
+        <v>-0.1449846977927787</v>
       </c>
       <c r="L225">
         <v>-0.01484385272801763</v>
@@ -17432,13 +17432,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U225">
-        <v>0.9998140486262844</v>
+        <v>-0.000185951373715576</v>
       </c>
       <c r="V225">
-        <v>0.9998449083408294</v>
+        <v>-0.0001550916591706031</v>
       </c>
       <c r="W225">
-        <v>1.0004662004662</v>
+        <v>0.0004662004662003838</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17473,7 +17473,7 @@
         <v>0.6089357080882859</v>
       </c>
       <c r="K226">
-        <v>37.84711253700836</v>
+        <v>-0.1215288746299164</v>
       </c>
       <c r="L226">
         <v>-0.01474323886528233</v>
@@ -17503,13 +17503,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U226">
-        <v>0.9998605105314547</v>
+        <v>-0.0001394894685452508</v>
       </c>
       <c r="V226">
-        <v>0.9999069305702054</v>
+        <v>-9.306942979458999E-05</v>
       </c>
       <c r="W226">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17544,7 +17544,7 @@
         <v>0.6705265800618736</v>
       </c>
       <c r="K227">
-        <v>40.13863580889796</v>
+        <v>-0.0986136419110204</v>
       </c>
       <c r="L227">
         <v>-0.01436629876755542</v>
@@ -17574,13 +17574,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U227">
-        <v>0.9999069940476192</v>
+        <v>-9.300595238082021E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999379479383201</v>
+        <v>-6.205206167986255E-05</v>
       </c>
       <c r="W227">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17615,7 +17615,7 @@
         <v>0.8001915736904426</v>
       </c>
       <c r="K228">
-        <v>44.45035658344005</v>
+        <v>-0.05549643416559952</v>
       </c>
       <c r="L228">
         <v>-0.01345512147503252</v>
@@ -17645,13 +17645,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U228">
-        <v>0.9999224878305895</v>
+        <v>-7.751216941054295E-05</v>
       </c>
       <c r="V228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W228">
-        <v>1.000931098696462</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17686,7 +17686,7 @@
         <v>0.8001915736904426</v>
       </c>
       <c r="K229">
-        <v>44.45035658344005</v>
+        <v>-0.05549643416559952</v>
       </c>
       <c r="L229">
         <v>-0.01222917026892781</v>
@@ -17716,13 +17716,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U229">
-        <v>0.9999224818219872</v>
+        <v>-7.751817801282535E-05</v>
       </c>
       <c r="V229">
-        <v>1.000124111824754</v>
+        <v>0.0001241118247539141</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17757,7 +17757,7 @@
         <v>0.6996680760474453</v>
       </c>
       <c r="K230">
-        <v>41.16498308743397</v>
+        <v>-0.08835016912566024</v>
       </c>
       <c r="L230">
         <v>-0.01118457051537014</v>
@@ -17787,13 +17787,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U230">
-        <v>0.9999069709749442</v>
+        <v>-9.302902505581301E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999069276828096</v>
+        <v>-9.307231719035691E-05</v>
       </c>
       <c r="W230">
-        <v>0.9990697674418605</v>
+        <v>-0.0009302325581395099</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17828,7 +17828,7 @@
         <v>0.8319041699083826</v>
       </c>
       <c r="K231">
-        <v>45.41199171733901</v>
+        <v>-0.04588008282660994</v>
       </c>
       <c r="L231">
         <v>-0.009937070228592425</v>
@@ -17858,13 +17858,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U231">
-        <v>0.9999534811598697</v>
+        <v>-4.651884013029406E-05</v>
       </c>
       <c r="V231">
-        <v>1.000031026993484</v>
+        <v>3.102699348422888E-05</v>
       </c>
       <c r="W231">
-        <v>1.000931098696462</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17899,7 +17899,7 @@
         <v>0.6882101377440037</v>
       </c>
       <c r="K232">
-        <v>40.76566787258343</v>
+        <v>-0.09234332127416572</v>
       </c>
       <c r="L232">
         <v>-0.009117867783943948</v>
@@ -17929,13 +17929,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U232">
-        <v>0.9998914509901221</v>
+        <v>-0.0001085490098778896</v>
       </c>
       <c r="V232">
-        <v>0.9999379479383204</v>
+        <v>-6.20520616796405E-05</v>
       </c>
       <c r="W232">
-        <v>0.9986046511627906</v>
+        <v>-0.001395348837209376</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17970,7 +17970,7 @@
         <v>0.6488834587110954</v>
       </c>
       <c r="K233">
-        <v>39.35290000533553</v>
+        <v>-0.1064709999466447</v>
       </c>
       <c r="L233">
         <v>-0.008746583624773728</v>
@@ -18000,13 +18000,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U233">
-        <v>0.9998914392059554</v>
+        <v>-0.0001085607940446431</v>
       </c>
       <c r="V233">
-        <v>0.9998448602190573</v>
+        <v>-0.0001551397809427257</v>
       </c>
       <c r="W233">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18041,7 +18041,7 @@
         <v>0.8894873206702937</v>
       </c>
       <c r="K234">
-        <v>47.07559087270027</v>
+        <v>-0.02924409127299726</v>
       </c>
       <c r="L234">
         <v>-0.007961124516196124</v>
@@ -18071,13 +18071,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U234">
-        <v>0.9999844896313187</v>
+        <v>-1.551036868130407E-05</v>
       </c>
       <c r="V234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W234">
-        <v>1.001863932898416</v>
+        <v>0.001863932898415577</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18112,7 +18112,7 @@
         <v>0.8894873206702936</v>
       </c>
       <c r="K235">
-        <v>47.07559087270027</v>
+        <v>-0.02924409127299732</v>
       </c>
       <c r="L235">
         <v>-0.006945706867122406</v>
@@ -18142,13 +18142,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U235">
-        <v>1.000015510609257</v>
+        <v>1.551060925653047E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999689672293943</v>
+        <v>-3.103277060567677E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18183,7 +18183,7 @@
         <v>0.8339079642396617</v>
       </c>
       <c r="K236">
-        <v>45.47163655431313</v>
+        <v>-0.04528363445686873</v>
       </c>
       <c r="L236">
         <v>-0.005999708337517517</v>
@@ -18213,13 +18213,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U236">
-        <v>0.9999844896313186</v>
+        <v>-1.551036868141509E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999689662663316</v>
+        <v>-3.103373366841744E-05</v>
       </c>
       <c r="W236">
-        <v>0.9995348837209302</v>
+        <v>-0.0004651162790697549</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18254,7 +18254,7 @@
         <v>0.7369628872199651</v>
       </c>
       <c r="K237">
-        <v>42.4282460288766</v>
+        <v>-0.07571753971123402</v>
       </c>
       <c r="L237">
         <v>-0.005472993946271203</v>
@@ -18284,13 +18284,13 @@
         <v>0.03125</v>
       </c>
       <c r="U237">
-        <v>0.9999534681722297</v>
+        <v>-4.653182777025755E-05</v>
       </c>
       <c r="V237">
-        <v>0.9999689653032091</v>
+        <v>-3.103469679088811E-05</v>
       </c>
       <c r="W237">
-        <v>0.9990693345742205</v>
+        <v>-0.0009306654257794644</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18325,7 +18325,7 @@
         <v>0.6944708033965633</v>
       </c>
       <c r="K238">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L238">
         <v>-0.005383395133794939</v>
@@ -18355,13 +18355,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U238">
-        <v>0.9999069320138362</v>
+        <v>-9.30679861638195E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999379286800533</v>
+        <v>-6.207131994673265E-05</v>
       </c>
       <c r="W238">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18396,7 +18396,7 @@
         <v>0.6944708033965633</v>
       </c>
       <c r="K239">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L239">
         <v>-0.005544791297073232</v>
@@ -18426,13 +18426,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U239">
-        <v>0.9999379489009198</v>
+        <v>-6.20510990801959E-05</v>
       </c>
       <c r="V239">
-        <v>1.000031037586517</v>
+        <v>3.103758651734623E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18467,7 +18467,7 @@
         <v>0.6944708033965633</v>
       </c>
       <c r="K240">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L240">
         <v>-0.005827832285266054</v>
@@ -18497,13 +18497,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U240">
-        <v>0.9999224313129277</v>
+        <v>-7.756868707231579E-05</v>
       </c>
       <c r="V240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18538,7 +18538,7 @@
         <v>0.6944708033965633</v>
       </c>
       <c r="K241">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L241">
         <v>-0.00614536570882572</v>
@@ -18568,13 +18568,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U241">
-        <v>0.9999379402364478</v>
+        <v>-6.205976355222464E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999689633767845</v>
+        <v>-3.103662321546352E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18609,7 +18609,7 @@
         <v>0.6944708033965633</v>
       </c>
       <c r="K242">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L242">
         <v>-0.006441232326965419</v>
@@ -18639,13 +18639,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U242">
-        <v>0.9999379363847943</v>
+        <v>-6.206361520566528E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999379248269655</v>
+        <v>-6.207517303447041E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18680,7 +18680,7 @@
         <v>0.6944708033965634</v>
       </c>
       <c r="K243">
-        <v>40.98452460818434</v>
+        <v>-0.09015475391815664</v>
       </c>
       <c r="L243">
         <v>-0.006681706324430637</v>
@@ -18710,13 +18710,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U243">
-        <v>0.9999379325326631</v>
+        <v>-6.20674673369459E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998758419467983</v>
+        <v>-0.0001241580532016506</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18751,7 +18751,7 @@
         <v>0.7729077682362741</v>
       </c>
       <c r="K244">
-        <v>43.59548658333078</v>
+        <v>-0.06404513416669216</v>
       </c>
       <c r="L244">
         <v>-0.006679531569088527</v>
@@ -18781,13 +18781,13 @@
         <v>-0.125</v>
       </c>
       <c r="U244">
-        <v>1.000015517829987</v>
+        <v>1.551782998654438E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999068698972463</v>
+        <v>-9.313010275369127E-05</v>
       </c>
       <c r="W244">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18822,7 +18822,7 @@
         <v>0.8554729943833614</v>
       </c>
       <c r="K245">
-        <v>46.10538644178246</v>
+        <v>-0.03894613558217536</v>
       </c>
       <c r="L245">
         <v>-0.006336675028870571</v>
@@ -18852,13 +18852,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U245">
-        <v>0.9999534472324381</v>
+        <v>-4.655276756193594E-05</v>
       </c>
       <c r="V245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W245">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18893,7 +18893,7 @@
         <v>0.8554729943833613</v>
       </c>
       <c r="K246">
-        <v>46.10538644178246</v>
+        <v>-0.03894613558217541</v>
       </c>
       <c r="L246">
         <v>-0.00578614775260458</v>
@@ -18923,13 +18923,13 @@
         <v>-0.07499999999996021</v>
       </c>
       <c r="U246">
-        <v>0.9999844816883923</v>
+        <v>-1.551831160773176E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999379074821483</v>
+        <v>-6.209251785171954E-05</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18964,7 +18964,7 @@
         <v>0.7837698021792732</v>
       </c>
       <c r="K247">
-        <v>43.93895452326434</v>
+        <v>-0.06061045476735655</v>
       </c>
       <c r="L247">
         <v>-0.005293284260701572</v>
@@ -18994,13 +18994,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U247">
-        <v>0.999968962895141</v>
+        <v>-3.103710485896638E-05</v>
       </c>
       <c r="V247">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W247">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19035,7 +19035,7 @@
         <v>0.6662120989659851</v>
       </c>
       <c r="K248">
-        <v>39.98363109831106</v>
+        <v>-0.1001636890168894</v>
       </c>
       <c r="L248">
         <v>-0.005186514683175422</v>
@@ -19065,13 +19065,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U248">
-        <v>0.9999068857954282</v>
+        <v>-9.311420457180919E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999689518132141</v>
+        <v>-3.104818678589805E-05</v>
       </c>
       <c r="W248">
-        <v>0.9990684676292502</v>
+        <v>-0.0009315323707498324</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19106,7 +19106,7 @@
         <v>0.8240964042897633</v>
       </c>
       <c r="K249">
-        <v>45.17833609844961</v>
+        <v>-0.04821663901550394</v>
       </c>
       <c r="L249">
         <v>-0.004962588176712607</v>
@@ -19136,13 +19136,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U249">
-        <v>0.9999534385621829</v>
+        <v>-4.656143781711641E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999068525475828</v>
+        <v>-9.314745241717493E-05</v>
       </c>
       <c r="W249">
-        <v>1.000932400932401</v>
+        <v>0.0009324009324009896</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19177,7 +19177,7 @@
         <v>0.8240964042897633</v>
       </c>
       <c r="K250">
-        <v>45.17833609844961</v>
+        <v>-0.04821663901550394</v>
       </c>
       <c r="L250">
         <v>-0.004663873572921039</v>
@@ -19207,13 +19207,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U250">
-        <v>0.9999379151921522</v>
+        <v>-6.208480784775094E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999068438703266</v>
+        <v>-9.315612967342179E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19248,7 +19248,7 @@
         <v>0.757810333349046</v>
       </c>
       <c r="K251">
-        <v>43.11104099071015</v>
+        <v>-0.06888959009289847</v>
       </c>
       <c r="L251">
         <v>-0.004491431628077068</v>
@@ -19278,13 +19278,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U251">
-        <v>0.9999379113373899</v>
+        <v>-6.208866261014911E-05</v>
       </c>
       <c r="V251">
-        <v>0.9999068351914537</v>
+        <v>-9.316480854626441E-05</v>
       </c>
       <c r="W251">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19319,7 +19319,7 @@
         <v>0.8424785968596472</v>
       </c>
       <c r="K252">
-        <v>45.72528540063274</v>
+        <v>-0.04274714599367258</v>
       </c>
       <c r="L252">
         <v>-0.004220597124462898</v>
@@ -19349,13 +19349,13 @@
         <v>0.03125</v>
       </c>
       <c r="U252">
-        <v>0.9999844768705372</v>
+        <v>-1.552312946284662E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W252">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19390,7 +19390,7 @@
         <v>0.8424785968596473</v>
       </c>
       <c r="K253">
-        <v>45.72528540063274</v>
+        <v>-0.04274714599367258</v>
       </c>
       <c r="L253">
         <v>-0.003892033359602952</v>
@@ -19420,13 +19420,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U253">
-        <v>0.9999844766295658</v>
+        <v>-1.55233704342006E-05</v>
       </c>
       <c r="V253">
-        <v>1.000031057829679</v>
+        <v>3.105782967893767E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19461,7 +19461,7 @@
         <v>0.7702201962630927</v>
       </c>
       <c r="K254">
-        <v>43.50985249682584</v>
+        <v>-0.0649014750317416</v>
       </c>
       <c r="L254">
         <v>-0.003704811465053159</v>
@@ -19491,13 +19491,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U254">
-        <v>1.000015523611413</v>
+        <v>1.552361141299308E-05</v>
       </c>
       <c r="V254">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W254">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19532,7 +19532,7 @@
         <v>0.9507861467707825</v>
       </c>
       <c r="K255">
-        <v>48.73861485763872</v>
+        <v>-0.01261385142361277</v>
       </c>
       <c r="L255">
         <v>-0.003262543547420816</v>
@@ -19562,13 +19562,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U255">
-        <v>1.000031046740868</v>
+        <v>3.10467408684012E-05</v>
       </c>
       <c r="V255">
-        <v>1.00006211373024</v>
+        <v>6.21137302401209E-05</v>
       </c>
       <c r="W255">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492080104</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19603,7 +19603,7 @@
         <v>0.8682703273230308</v>
       </c>
       <c r="K256">
-        <v>46.47455534805503</v>
+        <v>-0.03525444651944976</v>
       </c>
       <c r="L256">
         <v>-0.002851607225346695</v>
@@ -19633,13 +19633,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V256">
-        <v>1.000031054936182</v>
+        <v>3.105493618216215E-05</v>
       </c>
       <c r="W256">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19674,7 +19674,7 @@
         <v>0.9596250000940075</v>
       </c>
       <c r="K257">
-        <v>48.96982841349606</v>
+        <v>-0.01030171586503942</v>
       </c>
       <c r="L257">
         <v>-0.002305877899103395</v>
@@ -19704,13 +19704,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V257">
-        <v>1.000062107943606</v>
+        <v>6.210794360583805E-05</v>
       </c>
       <c r="W257">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19745,7 +19745,7 @@
         <v>0.9596250000940075</v>
       </c>
       <c r="K258">
-        <v>48.96982841349606</v>
+        <v>-0.01030171586503942</v>
       </c>
       <c r="L258">
         <v>-0.00170485213848983</v>
@@ -19775,13 +19775,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U258">
-        <v>0.9999689542230017</v>
+        <v>-3.104577699830635E-05</v>
       </c>
       <c r="V258">
-        <v>1.000062104086449</v>
+        <v>6.210408644879983E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19816,7 +19816,7 @@
         <v>0.7980594399989721</v>
       </c>
       <c r="K259">
-        <v>44.38448597669432</v>
+        <v>-0.05615514023305679</v>
       </c>
       <c r="L259">
         <v>-0.001441575849122601</v>
@@ -19846,13 +19846,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U259">
-        <v>0.9999379065182633</v>
+        <v>-6.209348173669138E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999689498851146</v>
+        <v>-3.105011488535592E-05</v>
       </c>
       <c r="W259">
-        <v>0.9990689013035381</v>
+        <v>-0.0009310986964619072</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19887,7 +19887,7 @@
         <v>0.9752838876839457</v>
       </c>
       <c r="K260">
-        <v>49.37436556663674</v>
+        <v>-0.006256344333632591</v>
       </c>
       <c r="L260">
         <v>-0.001055288981079376</v>
@@ -19917,13 +19917,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W260">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492080104</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19958,7 +19958,7 @@
         <v>0.892074705102114</v>
       </c>
       <c r="K261">
-        <v>47.14796422660115</v>
+        <v>-0.02852035773398848</v>
       </c>
       <c r="L261">
         <v>-0.000784832689815225</v>
@@ -19988,13 +19988,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U261">
-        <v>0.9999534269968174</v>
+        <v>-4.657300318255952E-05</v>
       </c>
       <c r="V261">
-        <v>0.999968948920975</v>
+        <v>-3.105107902501292E-05</v>
       </c>
       <c r="W261">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20029,7 +20029,7 @@
         <v>0.892074705102114</v>
       </c>
       <c r="K262">
-        <v>47.14796422660115</v>
+        <v>-0.02852035773398848</v>
       </c>
       <c r="L262">
         <v>-0.000598928697302684</v>
@@ -20059,13 +20059,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V262">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20100,7 +20100,7 @@
         <v>0.8150261434980278</v>
       </c>
       <c r="K263">
-        <v>44.90437487182748</v>
+        <v>-0.05095625128172521</v>
       </c>
       <c r="L263">
         <v>-0.0006435043692622581</v>
@@ -20130,13 +20130,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V263">
-        <v>1.000031052043225</v>
+        <v>3.105204322451094E-05</v>
       </c>
       <c r="W263">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20171,7 +20171,7 @@
         <v>0.8150261434980278</v>
       </c>
       <c r="K264">
-        <v>44.90437487182748</v>
+        <v>-0.05095625128172521</v>
       </c>
       <c r="L264">
         <v>-0.000822531092814366</v>
@@ -20201,13 +20201,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U264">
-        <v>0.9999378997702291</v>
+        <v>-6.210022977093388E-05</v>
       </c>
       <c r="V264">
-        <v>0.999968948920975</v>
+        <v>-3.105107902501292E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20242,7 +20242,7 @@
         <v>0.9107270606298254</v>
       </c>
       <c r="K265">
-        <v>47.66390131773326</v>
+        <v>-0.02336098682266735</v>
       </c>
       <c r="L265">
         <v>-0.0008990216317708311</v>
@@ -20272,13 +20272,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U265">
-        <v>0.9999534219351635</v>
+        <v>-4.657806483654436E-05</v>
       </c>
       <c r="V265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W265">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20313,7 +20313,7 @@
         <v>0.9107270606298254</v>
       </c>
       <c r="K266">
-        <v>47.66390131773326</v>
+        <v>-0.02336098682266735</v>
       </c>
       <c r="L266">
         <v>-0.0009052445328383189</v>
@@ -20343,13 +20343,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U266">
-        <v>0.9999689465103642</v>
+        <v>-3.105348963583499E-05</v>
       </c>
       <c r="V266">
-        <v>1.000031052043225</v>
+        <v>3.105204322451094E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20384,7 +20384,7 @@
         <v>0.9107270606298256</v>
       </c>
       <c r="K267">
-        <v>47.66390131773327</v>
+        <v>-0.0233609868226673</v>
       </c>
       <c r="L267">
         <v>-0.0008652036766594979</v>
@@ -20414,13 +20414,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20455,7 +20455,7 @@
         <v>0.9107270606298256</v>
       </c>
       <c r="K268">
-        <v>47.66390131773327</v>
+        <v>-0.0233609868226673</v>
       </c>
       <c r="L268">
         <v>-0.0007965351871436999</v>
@@ -20485,13 +20485,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U268">
-        <v>1.000015527226992</v>
+        <v>1.552722699238451E-05</v>
       </c>
       <c r="V268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20526,7 +20526,7 @@
         <v>0.9107270606298253</v>
       </c>
       <c r="K269">
-        <v>47.66390131773326</v>
+        <v>-0.02336098682266746</v>
       </c>
       <c r="L269">
         <v>-0.0007119979645227412</v>
@@ -20556,13 +20556,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U269">
-        <v>1.000015526985902</v>
+        <v>1.552698590168156E-05</v>
       </c>
       <c r="V269">
-        <v>1.000031051079025</v>
+        <v>3.10510790249019E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20597,7 +20597,7 @@
         <v>1.158086261390212</v>
       </c>
       <c r="K270">
-        <v>53.6626492698298</v>
+        <v>0.03662649269829799</v>
       </c>
       <c r="L270">
         <v>-0.0002814441970962315</v>
@@ -20627,13 +20627,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U270">
-        <v>1.000046580234454</v>
+        <v>4.658023445380799E-05</v>
       </c>
       <c r="V270">
-        <v>1.000031050114885</v>
+        <v>3.105011488546694E-05</v>
       </c>
       <c r="W270">
-        <v>1.00093153237075</v>
+        <v>0.0009315323707499434</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20668,7 +20668,7 @@
         <v>1.288275314421975</v>
       </c>
       <c r="K271">
-        <v>56.29896482746427</v>
+        <v>0.06298964827464271</v>
       </c>
       <c r="L271">
         <v>0.0005019273575906323</v>
@@ -20698,13 +20698,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U271">
-        <v>1.000062104086449</v>
+        <v>6.210408644879983E-05</v>
       </c>
       <c r="V271">
-        <v>1.000093147452417</v>
+        <v>9.31474524170639E-05</v>
       </c>
       <c r="W271">
-        <v>1.00046533271289</v>
+        <v>0.0004653327128896212</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20739,7 +20739,7 @@
         <v>1.288275314421976</v>
       </c>
       <c r="K272">
-        <v>56.29896482746427</v>
+        <v>0.06298964827464271</v>
       </c>
       <c r="L272">
         <v>0.001447288626376421</v>
@@ -20769,13 +20769,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U272">
-        <v>1.000062100229771</v>
+        <v>6.210022977093388E-05</v>
       </c>
       <c r="V272">
-        <v>1.000062092517852</v>
+        <v>6.209251785160852E-05</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20810,7 +20810,7 @@
         <v>1.432529112795121</v>
       </c>
       <c r="K273">
-        <v>58.89052284143311</v>
+        <v>0.08890522841433113</v>
       </c>
       <c r="L273">
         <v>0.002594842160179892</v>
@@ -20840,13 +20840,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U273">
-        <v>1.000077620466965</v>
+        <v>7.762046696457858E-05</v>
       </c>
       <c r="V273">
-        <v>1.000093132993916</v>
+        <v>9.313299391555674E-05</v>
       </c>
       <c r="W273">
-        <v>1.00046511627907</v>
+        <v>0.0004651162790696439</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20881,7 +20881,7 @@
         <v>0.9841919668561593</v>
       </c>
       <c r="K274">
-        <v>49.60165061123376</v>
+        <v>-0.003983493887662393</v>
       </c>
       <c r="L274">
         <v>0.003273482050793331</v>
@@ -20911,13 +20911,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U274">
-        <v>1.000015522888499</v>
+        <v>1.552288849904215E-05</v>
       </c>
       <c r="V274">
-        <v>1.000062082880646</v>
+        <v>6.208288064568634E-05</v>
       </c>
       <c r="W274">
-        <v>0.99860529986053</v>
+        <v>-0.001394700139469962</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20952,7 +20952,7 @@
         <v>0.9841919668561595</v>
       </c>
       <c r="K275">
-        <v>49.60165061123377</v>
+        <v>-0.003983493887662337</v>
       </c>
       <c r="L275">
         <v>0.003612867748013654</v>
@@ -20982,13 +20982,13 @@
         <v>0.09375</v>
       </c>
       <c r="U275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21023,7 +21023,7 @@
         <v>0.9841919668561594</v>
       </c>
       <c r="K276">
-        <v>49.60165061123377</v>
+        <v>-0.003983493887662337</v>
       </c>
       <c r="L276">
         <v>0.003711945791004555</v>
@@ -21053,13 +21053,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V276">
-        <v>1.000031039513301</v>
+        <v>3.103951330052368E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21094,7 +21094,7 @@
         <v>0.7915619006900895</v>
       </c>
       <c r="K277">
-        <v>44.18278265379436</v>
+        <v>-0.05817217346205639</v>
       </c>
       <c r="L277">
         <v>0.00330647133975946</v>
@@ -21124,13 +21124,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U277">
-        <v>0.9999844773524572</v>
+        <v>-1.55226475427872E-05</v>
       </c>
       <c r="V277">
-        <v>0.999968961450121</v>
+        <v>-3.103854987895893E-05</v>
       </c>
       <c r="W277">
-        <v>0.9990689013035381</v>
+        <v>-0.0009310986964619072</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21165,7 +21165,7 @@
         <v>0.9975872468924538</v>
       </c>
       <c r="K278">
-        <v>49.93960831720118</v>
+        <v>-0.0006039168279882157</v>
       </c>
       <c r="L278">
         <v>0.002948308469643429</v>
@@ -21195,13 +21195,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U278">
-        <v>1.000046568665497</v>
+        <v>4.656866549712646E-05</v>
       </c>
       <c r="V278">
-        <v>1.000062079026601</v>
+        <v>6.207902660060327E-05</v>
       </c>
       <c r="W278">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492080104</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21236,7 +21236,7 @@
         <v>0.8999966560295656</v>
       </c>
       <c r="K279">
-        <v>47.3683284217086</v>
+        <v>-0.02631671578291406</v>
       </c>
       <c r="L279">
         <v>0.002461332613852213</v>
@@ -21266,13 +21266,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V279">
-        <v>1.000031037586517</v>
+        <v>3.103758651734623E-05</v>
       </c>
       <c r="W279">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21307,7 +21307,7 @@
         <v>0.8999966560295656</v>
       </c>
       <c r="K280">
-        <v>47.3683284217086</v>
+        <v>-0.02631671578291406</v>
       </c>
       <c r="L280">
         <v>0.001918401851410021</v>
@@ -21337,13 +21337,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U280">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21378,7 +21378,7 @@
         <v>1.008391805447808</v>
       </c>
       <c r="K281">
-        <v>50.20891853434787</v>
+        <v>0.002089185343478683</v>
       </c>
       <c r="L281">
         <v>0.001538746290903086</v>
@@ -21408,13 +21408,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U281">
-        <v>1.000031044331305</v>
+        <v>3.104433130474149E-05</v>
       </c>
       <c r="V281">
-        <v>1.000031036623215</v>
+        <v>3.103662321546352E-05</v>
       </c>
       <c r="W281">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21449,7 +21449,7 @@
         <v>0.9051177300859483</v>
       </c>
       <c r="K282">
-        <v>47.50980560372584</v>
+        <v>-0.02490194396274165</v>
       </c>
       <c r="L282">
         <v>0.001107038502093866</v>
@@ -21479,13 +21479,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U282">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V282">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W282">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21520,7 +21520,7 @@
         <v>0.9051177300859483</v>
       </c>
       <c r="K283">
-        <v>47.50980560372584</v>
+        <v>-0.02490194396274165</v>
       </c>
       <c r="L283">
         <v>0.0006672781402716539</v>
@@ -21550,13 +21550,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21591,7 +21591,7 @@
         <v>0.8128737761760135</v>
       </c>
       <c r="K284">
-        <v>44.83896159006996</v>
+        <v>-0.05161038409930041</v>
       </c>
       <c r="L284">
         <v>7.868299677844227E-05</v>
@@ -21621,13 +21621,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U284">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V284">
-        <v>0.9999689643400267</v>
+        <v>-3.103565997331081E-05</v>
       </c>
       <c r="W284">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21662,7 +21662,7 @@
         <v>0.9201514215308808</v>
       </c>
       <c r="K285">
-        <v>47.92077391465673</v>
+        <v>-0.02079226085343266</v>
       </c>
       <c r="L285">
         <v>-0.0003933119726050452</v>
@@ -21692,13 +21692,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U285">
-        <v>0.9999844783162078</v>
+        <v>-1.552168379215235E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999379267535693</v>
+        <v>-6.2073246430705E-05</v>
       </c>
       <c r="W285">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21733,7 +21733,7 @@
         <v>1.033075258746563</v>
       </c>
       <c r="K286">
-        <v>50.81342927676359</v>
+        <v>0.008134292767635887</v>
       </c>
       <c r="L286">
         <v>-0.0005936141152533274</v>
@@ -21763,13 +21763,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U286">
-        <v>1.000015521924718</v>
+        <v>1.552192471843128E-05</v>
       </c>
       <c r="V286">
-        <v>0.9999379229002422</v>
+        <v>-6.207709975780684E-05</v>
       </c>
       <c r="W286">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21804,7 +21804,7 @@
         <v>0.9233225010552573</v>
       </c>
       <c r="K287">
-        <v>48.00663958065606</v>
+        <v>-0.01993360419343937</v>
       </c>
       <c r="L287">
         <v>-0.0007839434193865082</v>
@@ -21834,13 +21834,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U287">
-        <v>0.9999844783162078</v>
+        <v>-1.552168379215235E-05</v>
       </c>
       <c r="V287">
-        <v>0.9999068785696548</v>
+        <v>-9.312143034523324E-05</v>
       </c>
       <c r="W287">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21875,7 +21875,7 @@
         <v>0.6379525483589057</v>
       </c>
       <c r="K288">
-        <v>38.9481703238645</v>
+        <v>-0.110518296761355</v>
       </c>
       <c r="L288">
         <v>-0.001631459688888254</v>
@@ -21905,13 +21905,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U288">
-        <v>0.9999223903764066</v>
+        <v>-7.760962359337764E-05</v>
       </c>
       <c r="V288">
-        <v>0.9997516530593237</v>
+        <v>-0.000248346940676325</v>
       </c>
       <c r="W288">
-        <v>0.9981369352585003</v>
+        <v>-0.001863064741499665</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21946,7 +21946,7 @@
         <v>0.6379525483589058</v>
       </c>
       <c r="K289">
-        <v>38.9481703238645</v>
+        <v>-0.110518296761355</v>
       </c>
       <c r="L289">
         <v>-0.002817207526836163</v>
@@ -21976,13 +21976,13 @@
         <v>-0.07499999999996021</v>
       </c>
       <c r="U289">
-        <v>0.9999534306116113</v>
+        <v>-4.656938838865088E-05</v>
       </c>
       <c r="V289">
-        <v>0.999844744604875</v>
+        <v>-0.0001552553951249536</v>
       </c>
       <c r="W289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22017,7 +22017,7 @@
         <v>0.6379525483589058</v>
       </c>
       <c r="K290">
-        <v>38.9481703238645</v>
+        <v>-0.110518296761355</v>
       </c>
       <c r="L290">
         <v>-0.004122117218312855</v>
@@ -22047,13 +22047,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U290">
-        <v>0.9999223807380039</v>
+        <v>-7.761926199612024E-05</v>
       </c>
       <c r="V290">
-        <v>0.9998447204968944</v>
+        <v>-0.0001552795031055654</v>
       </c>
       <c r="W290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22088,7 +22088,7 @@
         <v>0.7280731363806205</v>
       </c>
       <c r="K291">
-        <v>42.13207884855732</v>
+        <v>-0.07867921151442681</v>
       </c>
       <c r="L291">
         <v>-0.005231584413268435</v>
@@ -22118,13 +22118,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U291">
-        <v>0.9999534248276719</v>
+        <v>-4.657517232808939E-05</v>
       </c>
       <c r="V291">
-        <v>0.9998757571051405</v>
+        <v>-0.0001242428948594609</v>
       </c>
       <c r="W291">
-        <v>1.000466635557629</v>
+        <v>0.0004666355576294912</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22159,7 +22159,7 @@
         <v>0.6649897017009623</v>
       </c>
       <c r="K292">
-        <v>39.93956845628566</v>
+        <v>-0.1006043154371434</v>
       </c>
       <c r="L292">
         <v>-0.006302548740882956</v>
@@ -22189,13 +22189,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U292">
-        <v>0.9999378968777656</v>
+        <v>-6.210312223442482E-05</v>
       </c>
       <c r="V292">
-        <v>0.9999068062501941</v>
+        <v>-9.319374980587547E-05</v>
       </c>
       <c r="W292">
-        <v>0.9995335820895522</v>
+        <v>-0.0004664179104477695</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22230,7 +22230,7 @@
         <v>0.6649897017009623</v>
       </c>
       <c r="K293">
-        <v>39.93956845628566</v>
+        <v>-0.1006043154371434</v>
       </c>
       <c r="L293">
         <v>-0.007259095239826769</v>
@@ -22260,13 +22260,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U293">
-        <v>0.9999534197655461</v>
+        <v>-4.658023445391901E-05</v>
       </c>
       <c r="V293">
-        <v>0.999844662607183</v>
+        <v>-0.0001553373928170343</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22301,7 +22301,7 @@
         <v>0.6067397509746728</v>
       </c>
       <c r="K294">
-        <v>37.76216718398952</v>
+        <v>-0.1223783281601048</v>
       </c>
       <c r="L294">
         <v>-0.008228633550939037</v>
@@ -22331,13 +22331,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U294">
-        <v>0.9999378901276359</v>
+        <v>-6.210987236410226E-05</v>
       </c>
       <c r="V294">
-        <v>0.9998446384737283</v>
+        <v>-0.0001553615262717134</v>
       </c>
       <c r="W294">
-        <v>0.9995333644423704</v>
+        <v>-0.0004666355576296022</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22372,7 +22372,7 @@
         <v>0.6067397509746729</v>
       </c>
       <c r="K295">
-        <v>37.76216718398952</v>
+        <v>-0.1223783281601048</v>
       </c>
       <c r="L295">
         <v>-0.009114433279283725</v>
@@ -22402,13 +22402,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U295">
-        <v>0.9999223578371998</v>
+        <v>-7.764216280015113E-05</v>
       </c>
       <c r="V295">
-        <v>0.9998446143327741</v>
+        <v>-0.000155385667225949</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22443,7 +22443,7 @@
         <v>0.5530605420455852</v>
       </c>
       <c r="K296">
-        <v>35.61100981402384</v>
+        <v>-0.1438899018597615</v>
       </c>
       <c r="L296">
         <v>-0.01002962087208581</v>
@@ -22473,13 +22473,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U296">
-        <v>0.9999068221701117</v>
+        <v>-9.317782988826906E-05</v>
       </c>
       <c r="V296">
-        <v>0.9997824262580424</v>
+        <v>-0.0002175737419576329</v>
       </c>
       <c r="W296">
-        <v>0.9995331465919701</v>
+        <v>-0.000466853408029877</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22514,7 +22514,7 @@
         <v>0.6461884941220759</v>
       </c>
       <c r="K297">
-        <v>39.25361502825306</v>
+        <v>-0.1074638497174694</v>
       </c>
       <c r="L297">
         <v>-0.01069829748927976</v>
@@ -22544,13 +22544,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U297">
-        <v>0.9999223445726622</v>
+        <v>-7.765542733784159E-05</v>
       </c>
       <c r="V297">
-        <v>0.9998445563638625</v>
+        <v>-0.0001554436361375089</v>
       </c>
       <c r="W297">
-        <v>1.000467071461934</v>
+        <v>0.0004670714619336991</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22585,7 +22585,7 @@
         <v>0.7442179173605151</v>
       </c>
       <c r="K298">
-        <v>42.66771427773904</v>
+        <v>-0.07332285722260956</v>
       </c>
       <c r="L298">
         <v>-0.01096648940633085</v>
@@ -22615,13 +22615,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U298">
-        <v>0.9999378708334629</v>
+        <v>-6.212916653713929E-05</v>
       </c>
       <c r="V298">
-        <v>0.9998756257579057</v>
+        <v>-0.0001243742420943272</v>
       </c>
       <c r="W298">
-        <v>1.00046685340803</v>
+        <v>0.000466853408029877</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22656,7 +22656,7 @@
         <v>0.7442179173605151</v>
       </c>
       <c r="K299">
-        <v>42.66771427773904</v>
+        <v>-0.07332285722260956</v>
       </c>
       <c r="L299">
         <v>-0.01093503478090013</v>
@@ -22686,13 +22686,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U299">
-        <v>0.9999378669731896</v>
+        <v>-6.213302681035149E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999067077152718</v>
+        <v>-9.329228472820805E-05</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22727,7 +22727,7 @@
         <v>0.8528377769044612</v>
       </c>
       <c r="K300">
-        <v>46.02873427641887</v>
+        <v>-0.03971265723581124</v>
       </c>
       <c r="L300">
         <v>-0.01051452149822671</v>
@@ -22757,13 +22757,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U300">
-        <v>0.9999223288905458</v>
+        <v>-7.767110945422484E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999066990110096</v>
+        <v>-9.330098899040795E-05</v>
       </c>
       <c r="W300">
-        <v>1.000466635557629</v>
+        <v>0.0004666355576294912</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22798,7 +22798,7 @@
         <v>1.310184553931635</v>
       </c>
       <c r="K301">
-        <v>56.71341502573336</v>
+        <v>0.0671341502573336</v>
       </c>
       <c r="L301">
         <v>-0.009167864455789728</v>
@@ -22828,13 +22828,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U301">
-        <v>0.9999689291429105</v>
+        <v>-3.107085708953239E-05</v>
       </c>
       <c r="V301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W301">
-        <v>1.001865671641791</v>
+        <v>0.001865671641791078</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22869,7 +22869,7 @@
         <v>1.310184553931635</v>
       </c>
       <c r="K302">
-        <v>56.71341502573336</v>
+        <v>0.0671341502573336</v>
       </c>
       <c r="L302">
         <v>-0.007312272177603813</v>
@@ -22899,13 +22899,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U302">
-        <v>0.9999689281774823</v>
+        <v>-3.107182251771423E-05</v>
       </c>
       <c r="V302">
-        <v>1.000031103231626</v>
+        <v>3.110323162580642E-05</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22940,7 +22940,7 @@
         <v>1.943628843442947</v>
       </c>
       <c r="K303">
-        <v>66.02832581194667</v>
+        <v>0.1602832581194668</v>
       </c>
       <c r="L303">
         <v>-0.004391071490135002</v>
@@ -22970,13 +22970,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U303">
-        <v>1.000031072788006</v>
+        <v>3.107278800595914E-05</v>
       </c>
       <c r="V303">
-        <v>1.000311022642448</v>
+        <v>0.0003110226424483109</v>
       </c>
       <c r="W303">
-        <v>1.002327746741155</v>
+        <v>0.002327746741154657</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23011,7 +23011,7 @@
         <v>1.714931280024784</v>
       </c>
       <c r="K304">
-        <v>63.16665517991045</v>
+        <v>0.1316665517991045</v>
       </c>
       <c r="L304">
         <v>-0.001164020816730376</v>
@@ -23041,13 +23041,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U304">
-        <v>1.000062143645035</v>
+        <v>6.214364503542846E-05</v>
       </c>
       <c r="V304">
-        <v>1.000279833343698</v>
+        <v>0.000279833343697744</v>
       </c>
       <c r="W304">
-        <v>0.9995355318160705</v>
+        <v>-0.0004644681839295339</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23082,7 +23082,7 @@
         <v>1.525932144135526</v>
       </c>
       <c r="K305">
-        <v>60.41065464400116</v>
+        <v>0.1041065464400116</v>
       </c>
       <c r="L305">
         <v>0.001877085883036495</v>
@@ -23112,13 +23112,13 @@
         <v>0.2624999999999602</v>
       </c>
       <c r="U305">
-        <v>1.000046604837582</v>
+        <v>4.66048375820094E-05</v>
       </c>
       <c r="V305">
-        <v>1.00024867116347</v>
+        <v>0.0002486711634701599</v>
       </c>
       <c r="W305">
-        <v>0.9995353159851301</v>
+        <v>-0.0004646840148698761</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23153,7 +23153,7 @@
         <v>1.641940558669736</v>
       </c>
       <c r="K306">
-        <v>62.14903485551856</v>
+        <v>0.1214903485551857</v>
       </c>
       <c r="L306">
         <v>0.004774466025498541</v>
@@ -23183,13 +23183,13 @@
         <v>0.3187499999999943</v>
       </c>
       <c r="U306">
-        <v>1.000062136887563</v>
+        <v>6.213688756329105E-05</v>
       </c>
       <c r="V306">
-        <v>1.000248609341496</v>
+        <v>0.0002486093414959534</v>
       </c>
       <c r="W306">
-        <v>1.00046490004649</v>
+        <v>0.0004649000464900244</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23224,7 +23224,7 @@
         <v>1.201705081179277</v>
       </c>
       <c r="K307">
-        <v>54.58065621284845</v>
+        <v>0.04580656212848444</v>
       </c>
       <c r="L307">
         <v>0.006873251725302416</v>
@@ -23254,13 +23254,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U307">
-        <v>1.000046599770108</v>
+        <v>4.659977010779137E-05</v>
       </c>
       <c r="V307">
-        <v>1.00018641066269</v>
+        <v>0.0001864106626900952</v>
       </c>
       <c r="W307">
-        <v>0.9986059479553904</v>
+        <v>-0.001394052044609628</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23295,7 +23295,7 @@
         <v>0.9371989251525935</v>
       </c>
       <c r="K308">
-        <v>48.37907521958645</v>
+        <v>-0.01620924780413546</v>
       </c>
       <c r="L308">
         <v>0.007820101821687934</v>
@@ -23325,13 +23325,13 @@
         <v>0.3687499999999773</v>
       </c>
       <c r="U308">
-        <v>0.9999689349342198</v>
+        <v>-3.10650657802114E-05</v>
       </c>
       <c r="V308">
-        <v>1.000093187960115</v>
+        <v>9.318796011537067E-05</v>
       </c>
       <c r="W308">
-        <v>0.9986040018613308</v>
+        <v>-0.001395998138669197</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23366,7 +23366,7 @@
         <v>0.9371989251525936</v>
       </c>
       <c r="K309">
-        <v>48.37907521958645</v>
+        <v>-0.01620924780413546</v>
       </c>
       <c r="L309">
         <v>0.007980320992088232</v>
@@ -23396,13 +23396,13 @@
         <v>0.3250000000000171</v>
       </c>
       <c r="U309">
-        <v>0.9999844669845755</v>
+        <v>-1.553301542445151E-05</v>
       </c>
       <c r="V309">
-        <v>1.000124239035905</v>
+        <v>0.0001242390359050827</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23437,7 +23437,7 @@
         <v>1.099791016404782</v>
       </c>
       <c r="K310">
-        <v>52.37621305227894</v>
+        <v>0.02376213052278942</v>
       </c>
       <c r="L310">
         <v>0.007964215142036442</v>
@@ -23467,13 +23467,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U310">
-        <v>1.000015533256703</v>
+        <v>1.553325670267114E-05</v>
       </c>
       <c r="V310">
-        <v>1.000186335403727</v>
+        <v>0.0001863354037265896</v>
       </c>
       <c r="W310">
-        <v>1.000931966449208</v>
+        <v>0.0009319664492080104</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23508,7 +23508,7 @@
         <v>1.099791016404782</v>
       </c>
       <c r="K311">
-        <v>52.37621305227894</v>
+        <v>0.02376213052278942</v>
       </c>
       <c r="L311">
         <v>0.00781331004301054</v>
@@ -23538,13 +23538,13 @@
         <v>0.1875</v>
       </c>
       <c r="U311">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V311">
-        <v>1.000217350804198</v>
+        <v>0.0002173508041982686</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23579,7 +23579,7 @@
         <v>1.008909719365289</v>
       </c>
       <c r="K312">
-        <v>50.22175509629432</v>
+        <v>0.002217550962943182</v>
       </c>
       <c r="L312">
         <v>0.007392226817926138</v>
@@ -23609,13 +23609,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U312">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V312">
-        <v>1.000155216837923</v>
+        <v>0.0001552168379226337</v>
       </c>
       <c r="W312">
-        <v>0.9995344506517689</v>
+        <v>-0.0004655493482310646</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23650,7 +23650,7 @@
         <v>1.008909719365289</v>
       </c>
       <c r="K313">
-        <v>50.22175509629432</v>
+        <v>0.002217550962943182</v>
       </c>
       <c r="L313">
         <v>0.006807424666680609</v>
@@ -23680,13 +23680,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V313">
-        <v>1.000124154199516</v>
+        <v>0.0001241541995156137</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23721,7 +23721,7 @@
         <v>1.100472113131596</v>
       </c>
       <c r="K314">
-        <v>52.39165548791319</v>
+        <v>0.02391655487913191</v>
       </c>
       <c r="L314">
         <v>0.006305606157723931</v>
@@ -23751,13 +23751,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U314">
-        <v>1.000031066030849</v>
+        <v>3.106603084868098E-05</v>
       </c>
       <c r="V314">
-        <v>1.000155173483955</v>
+        <v>0.0001551734839551067</v>
       </c>
       <c r="W314">
-        <v>1.000465766185375</v>
+        <v>0.0004657661853750827</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23792,7 +23792,7 @@
         <v>1.293235047376397</v>
       </c>
       <c r="K315">
-        <v>56.39347998173751</v>
+        <v>0.06393479981737504</v>
       </c>
       <c r="L315">
         <v>0.006202356676717453</v>
@@ -23822,13 +23822,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U315">
-        <v>1.00004659759867</v>
+        <v>4.65975986703171E-05</v>
       </c>
       <c r="V315">
-        <v>1.000186179290657</v>
+        <v>0.000186179290657007</v>
       </c>
       <c r="W315">
-        <v>1.000931098696462</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23863,7 +23863,7 @@
         <v>1.394689223294713</v>
       </c>
       <c r="K316">
-        <v>58.24092787187816</v>
+        <v>0.08240927871878156</v>
       </c>
       <c r="L316">
         <v>0.006494120189408937</v>
@@ -23893,13 +23893,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U316">
-        <v>1.000046595427436</v>
+        <v>4.659542743556955E-05</v>
       </c>
       <c r="V316">
-        <v>1.00009307231719</v>
+        <v>9.307231719035691E-05</v>
       </c>
       <c r="W316">
-        <v>1.00046511627907</v>
+        <v>0.0004651162790696439</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23934,7 +23934,7 @@
         <v>1.149228175873015</v>
       </c>
       <c r="K317">
-        <v>53.47166898210794</v>
+        <v>0.03471668982107934</v>
       </c>
       <c r="L317">
         <v>0.006643602718003776</v>
@@ -23964,13 +23964,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U317">
-        <v>1.000031062170935</v>
+        <v>3.1062170934959E-05</v>
       </c>
       <c r="V317">
-        <v>1.000031021218514</v>
+        <v>3.102121851350503E-05</v>
       </c>
       <c r="W317">
-        <v>0.9990701999070201</v>
+        <v>-0.0009298000929799377</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24005,7 +24005,7 @@
         <v>0.9696001117255438</v>
       </c>
       <c r="K318">
-        <v>49.22827257945718</v>
+        <v>-0.007717274205428226</v>
       </c>
       <c r="L318">
         <v>0.006333932799852886</v>
@@ -24035,13 +24035,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U318">
-        <v>1.000062122412213</v>
+        <v>6.212241221326131E-05</v>
       </c>
       <c r="V318">
-        <v>0.9998138784626361</v>
+        <v>-0.0001861215373638592</v>
       </c>
       <c r="W318">
-        <v>0.9990693345742205</v>
+        <v>-0.0009306654257794644</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24076,7 +24076,7 @@
         <v>0.8958991040622324</v>
       </c>
       <c r="K319">
-        <v>47.25457711028196</v>
+        <v>-0.02745422889718041</v>
       </c>
       <c r="L319">
         <v>0.005573232080678017</v>
@@ -24106,13 +24106,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U319">
-        <v>1.000046588914944</v>
+        <v>4.658891494413453E-05</v>
       </c>
       <c r="V319">
-        <v>0.9998138438149607</v>
+        <v>-0.0001861561850392546</v>
       </c>
       <c r="W319">
-        <v>0.9995342338146251</v>
+        <v>-0.0004657661853748607</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24147,7 +24147,7 @@
         <v>0.8295267022123579</v>
       </c>
       <c r="K320">
-        <v>45.3410546678139</v>
+        <v>-0.04658945332186099</v>
       </c>
       <c r="L320">
         <v>0.004397958856767776</v>
@@ -24177,13 +24177,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U320">
-        <v>1.000031057829679</v>
+        <v>3.105782967893767E-05</v>
       </c>
       <c r="V320">
-        <v>0.9998138091543831</v>
+        <v>-0.0001861908456168848</v>
       </c>
       <c r="W320">
-        <v>0.9995340167753961</v>
+        <v>-0.0004659832246038942</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24218,7 +24218,7 @@
         <v>0.7695167983277376</v>
       </c>
       <c r="K321">
-        <v>43.48739718407652</v>
+        <v>-0.06512602815923479</v>
       </c>
       <c r="L321">
         <v>0.00286089759529591</v>
@@ -24248,13 +24248,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V321">
-        <v>0.9997516993078618</v>
+        <v>-0.0002483006921382147</v>
       </c>
       <c r="W321">
-        <v>0.9995337995337995</v>
+        <v>-0.0004662004662004948</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24289,7 +24289,7 @@
         <v>0.6678096166954036</v>
       </c>
       <c r="K322">
-        <v>40.04111800354054</v>
+        <v>-0.09958881996459462</v>
       </c>
       <c r="L322">
         <v>0.000853071180303805</v>
@@ -24319,13 +24319,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U322">
-        <v>0.99998447156744</v>
+        <v>-1.552843256003023E-05</v>
       </c>
       <c r="V322">
-        <v>0.9997826829344013</v>
+        <v>-0.0002173170655986878</v>
       </c>
       <c r="W322">
-        <v>0.9990671641791044</v>
+        <v>-0.00093283582089565</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24360,7 +24360,7 @@
         <v>0.4491158731357452</v>
       </c>
       <c r="K323">
-        <v>30.99240588427911</v>
+        <v>-0.1900759411572089</v>
       </c>
       <c r="L323">
         <v>-0.002502168348455345</v>
@@ -24390,13 +24390,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U323">
-        <v>0.9998757706104321</v>
+        <v>-0.0001242293895679092</v>
       </c>
       <c r="V323">
-        <v>0.9996584275245312</v>
+        <v>-0.0003415724754688432</v>
       </c>
       <c r="W323">
-        <v>0.9967320261437909</v>
+        <v>-0.003267973856209139</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24431,7 +24431,7 @@
         <v>0.4491158731357452</v>
       </c>
       <c r="K324">
-        <v>30.99240588427911</v>
+        <v>-0.1900759411572089</v>
       </c>
       <c r="L324">
         <v>-0.006450998081550044</v>
@@ -24461,13 +24461,13 @@
         <v>-0.2625000000000171</v>
       </c>
       <c r="U324">
-        <v>0.9998912857786267</v>
+        <v>-0.0001087142213732628</v>
       </c>
       <c r="V324">
-        <v>0.9996583108129097</v>
+        <v>-0.0003416891870903216</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24502,7 +24502,7 @@
         <v>0.5009527036600996</v>
       </c>
       <c r="K325">
-        <v>33.37564884213324</v>
+        <v>-0.1662435115786676</v>
       </c>
       <c r="L325">
         <v>-0.01031525826027553</v>
@@ -24532,13 +24532,13 @@
         <v>-0.3625000000000114</v>
       </c>
       <c r="U325">
-        <v>0.9999068062501942</v>
+        <v>-9.319374980576445E-05</v>
       </c>
       <c r="V325">
-        <v>0.9996271207507301</v>
+        <v>-0.0003728792492698751</v>
       </c>
       <c r="W325">
-        <v>1.000468384074941</v>
+        <v>0.0004683840749413193</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24573,7 +24573,7 @@
         <v>0.6646479579475497</v>
       </c>
       <c r="K326">
-        <v>39.92723835537193</v>
+        <v>-0.1007276164462806</v>
       </c>
       <c r="L326">
         <v>-0.01333631834589794</v>
@@ -24603,13 +24603,13 @@
         <v>-0.4062500000000284</v>
       </c>
       <c r="U326">
-        <v>0.9999689325214365</v>
+        <v>-3.106747856351788E-05</v>
       </c>
       <c r="V326">
-        <v>0.9997202362449487</v>
+        <v>-0.0002797637550513432</v>
       </c>
       <c r="W326">
-        <v>1.001404494382023</v>
+        <v>0.001404494382022614</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24644,7 +24644,7 @@
         <v>0.6646479579475497</v>
       </c>
       <c r="K327">
-        <v>39.92723835537193</v>
+        <v>-0.1007276164462806</v>
       </c>
       <c r="L327">
         <v>-0.01560592293251867</v>
@@ -24674,13 +24674,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U327">
-        <v>0.9999533973343278</v>
+        <v>-4.660266567224625E-05</v>
       </c>
       <c r="V327">
-        <v>0.9997512515158111</v>
+        <v>-0.0002487484841888765</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24715,7 +24715,7 @@
         <v>0.5929486882833189</v>
       </c>
       <c r="K328">
-        <v>37.22333887115504</v>
+        <v>-0.1277666112884496</v>
       </c>
       <c r="L328">
         <v>-0.01755848694362433</v>
@@ -24745,13 +24745,13 @@
         <v>-0.4749999999999943</v>
       </c>
       <c r="U328">
-        <v>0.9999067903248356</v>
+        <v>-9.320967516435186E-05</v>
       </c>
       <c r="V328">
-        <v>0.9996889870307591</v>
+        <v>-0.0003110129692408536</v>
       </c>
       <c r="W328">
-        <v>0.9990649836372135</v>
+        <v>-0.0009350163627864783</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24786,7 +24786,7 @@
         <v>0.5929486882833189</v>
       </c>
       <c r="K329">
-        <v>37.22333887115504</v>
+        <v>-0.1277666112884496</v>
       </c>
       <c r="L329">
         <v>-0.01913108555639428</v>
@@ -24816,13 +24816,13 @@
         <v>-0.5</v>
       </c>
       <c r="U329">
-        <v>0.9999067816359822</v>
+        <v>-9.32183640177664E-05</v>
       </c>
       <c r="V329">
-        <v>0.9996577792987584</v>
+        <v>-0.000342220701241569</v>
       </c>
       <c r="W329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24857,7 +24857,7 @@
         <v>0.5595096751589421</v>
       </c>
       <c r="K330">
-        <v>35.87728143475083</v>
+        <v>-0.1412271856524917</v>
       </c>
       <c r="L330">
         <v>-0.02047373669380338</v>
@@ -24887,13 +24887,13 @@
         <v>-0.4999999999999716</v>
       </c>
       <c r="U330">
-        <v>0.9998756972606785</v>
+        <v>-0.0001243027393215135</v>
       </c>
       <c r="V330">
-        <v>0.9995642972737458</v>
+        <v>-0.0004357027262541502</v>
       </c>
       <c r="W330">
-        <v>0.9995320542817033</v>
+        <v>-0.0004679457182966695</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24928,7 +24928,7 @@
         <v>0.6782348258476675</v>
       </c>
       <c r="K331">
-        <v>40.41358309348006</v>
+        <v>-0.09586416906519946</v>
       </c>
       <c r="L331">
         <v>-0.02117790336008239</v>
@@ -24958,13 +24958,13 @@
         <v>-0.3874999999999886</v>
       </c>
       <c r="U331">
-        <v>0.999844602259483</v>
+        <v>-0.0001553977405169826</v>
       </c>
       <c r="V331">
-        <v>0.9995952425431224</v>
+        <v>-0.0004047574568776247</v>
       </c>
       <c r="W331">
-        <v>1.000936329588015</v>
+        <v>0.0009363295880151501</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -24999,7 +24999,7 @@
         <v>0.6782348258476675</v>
       </c>
       <c r="K332">
-        <v>40.41358309348006</v>
+        <v>-0.09586416906519946</v>
       </c>
       <c r="L332">
         <v>-0.02137338458289198</v>
@@ -25029,13 +25029,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U332">
-        <v>0.9998445781072721</v>
+        <v>-0.0001554218927278805</v>
       </c>
       <c r="V332">
-        <v>0.9996573742407725</v>
+        <v>-0.0003426257592274995</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25070,7 +25070,7 @@
         <v>0.5993848955979085</v>
       </c>
       <c r="K333">
-        <v>37.47596324359662</v>
+        <v>-0.1252403675640338</v>
       </c>
       <c r="L333">
         <v>-0.02151012129076193</v>
@@ -25100,13 +25100,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U333">
-        <v>0.9997357417108393</v>
+        <v>-0.0002642582891606571</v>
       </c>
       <c r="V333">
-        <v>0.9996572568081262</v>
+        <v>-0.0003427431918737733</v>
       </c>
       <c r="W333">
-        <v>0.9990645463049578</v>
+        <v>-0.000935453695042221</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25141,7 +25141,7 @@
         <v>0.5064234825313708</v>
       </c>
       <c r="K334">
-        <v>33.61760410693974</v>
+        <v>-0.1638239589306026</v>
       </c>
       <c r="L334">
         <v>-0.02203410292647793</v>
@@ -25171,13 +25171,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U334">
-        <v>0.9997045744316945</v>
+        <v>-0.0002954255683055296</v>
       </c>
       <c r="V334">
-        <v>0.9995948009849452</v>
+        <v>-0.000405199015054758</v>
       </c>
       <c r="W334">
-        <v>0.9985955056179776</v>
+        <v>-0.001404494382022392</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25212,7 +25212,7 @@
         <v>0.480286671573023</v>
       </c>
       <c r="K335">
-        <v>32.44551753361715</v>
+        <v>-0.1755448246638285</v>
       </c>
       <c r="L335">
         <v>-0.02284957869441848</v>
@@ -25242,13 +25242,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U335">
-        <v>0.999704487129637</v>
+        <v>-0.0002955128703630017</v>
       </c>
       <c r="V335">
-        <v>0.9995946367321482</v>
+        <v>-0.0004053632678517882</v>
       </c>
       <c r="W335">
-        <v>0.9995311767463665</v>
+        <v>-0.0004688232536335102</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25283,7 +25283,7 @@
         <v>0.3776923453843307</v>
       </c>
       <c r="K336">
-        <v>27.41485402381088</v>
+        <v>-0.2258514597618912</v>
       </c>
       <c r="L336">
         <v>-0.02455685210158471</v>
@@ -25313,13 +25313,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U336">
-        <v>0.9996110523367974</v>
+        <v>-0.0003889476632026323</v>
       </c>
       <c r="V336">
-        <v>0.9994696946064823</v>
+        <v>-0.0005303053935177271</v>
       </c>
       <c r="W336">
-        <v>0.9976547842401501</v>
+        <v>-0.002345215759849917</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25354,7 +25354,7 @@
         <v>0.557574959596125</v>
       </c>
       <c r="K337">
-        <v>35.79763247739311</v>
+        <v>-0.1420236752260689</v>
       </c>
       <c r="L337">
         <v>-0.02592756449375138</v>
@@ -25384,13 +25384,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U337">
-        <v>0.999719848718308</v>
+        <v>-0.0002801512816920093</v>
       </c>
       <c r="V337">
-        <v>0.999656679151061</v>
+        <v>-0.000343320848938955</v>
       </c>
       <c r="W337">
-        <v>1.001880582980724</v>
+        <v>0.001880582980724022</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25425,7 +25425,7 @@
         <v>0.5323737034100695</v>
       </c>
       <c r="K338">
-        <v>34.74176711760005</v>
+        <v>-0.1525823288239995</v>
       </c>
       <c r="L338">
         <v>-0.02708323640841404</v>
@@ -25455,13 +25455,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U338">
-        <v>0.999750906854732</v>
+        <v>-0.0002490931452679979</v>
       </c>
       <c r="V338">
-        <v>0.9998438914733523</v>
+        <v>-0.0001561085266477136</v>
       </c>
       <c r="W338">
-        <v>0.9995307367433131</v>
+        <v>-0.000469263256686947</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25496,7 +25496,7 @@
         <v>0.5799505137277349</v>
       </c>
       <c r="K339">
-        <v>36.70687839199468</v>
+        <v>-0.1329312160800532</v>
       </c>
       <c r="L339">
         <v>-0.02776693238325656</v>
@@ -25526,13 +25526,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U339">
-        <v>0.9997664169923851</v>
+        <v>-0.0002335830076148904</v>
       </c>
       <c r="V339">
-        <v>0.9998750936797403</v>
+        <v>-0.0001249063202597434</v>
       </c>
       <c r="W339">
-        <v>1.000469483568075</v>
+        <v>0.0004694835680751908</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25567,7 +25567,7 @@
         <v>0.5041984486154092</v>
       </c>
       <c r="K340">
-        <v>33.51941022672347</v>
+        <v>-0.1648058977327653</v>
       </c>
       <c r="L340">
         <v>-0.02853073022865072</v>
@@ -25597,13 +25597,13 @@
         <v>-0.3249999999999602</v>
       </c>
       <c r="U340">
-        <v>0.9996884832248216</v>
+        <v>-0.0003115167751783776</v>
       </c>
       <c r="V340">
-        <v>0.9997501561524047</v>
+        <v>-0.0002498438475952991</v>
       </c>
       <c r="W340">
-        <v>0.998592210229939</v>
+        <v>-0.001407789770060952</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25638,7 +25638,7 @@
         <v>0.5500293796001781</v>
       </c>
       <c r="K341">
-        <v>35.48509382074134</v>
+        <v>-0.1451490617925866</v>
       </c>
       <c r="L341">
         <v>-0.02902109185218242</v>
@@ -25668,13 +25668,13 @@
         <v>-0.3687500000000057</v>
       </c>
       <c r="U341">
-        <v>0.9997039668442865</v>
+        <v>-0.000296033155713471</v>
       </c>
       <c r="V341">
-        <v>0.9996876171435711</v>
+        <v>-0.0003123828564288722</v>
       </c>
       <c r="W341">
-        <v>1.00046992481203</v>
+        <v>0.0004699248120301203</v>
       </c>
     </row>
   </sheetData>
